--- a/utils/localization/resources/backup/out_meta_meta.xlsx
+++ b/utils/localization/resources/backup/out_meta_meta.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2ED38-853B-6248-B67E-066609C805DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31553F-21B0-444F-B1AA-A230ABD1EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6459" uniqueCount="3807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="3811">
   <si>
     <t>Key</t>
   </si>
@@ -11483,12 +11494,104 @@
   <si>
     <t>An unexpected error has occurred.</t>
   </si>
+  <si>
+    <r>
+      <t>Translated &lt;contribution-count&gt; &lt;language&gt; &lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentence(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validated &lt;validation-count&gt; &lt;language&gt; &lt;span&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentence(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Translated &lt;contribution-count&gt; &lt;language&gt; &lt;s&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentence(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/s&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validated &lt;validation-count&gt; &lt;language&gt; &lt;s&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentence(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/s&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11513,6 +11616,19 @@
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11550,7 +11666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11562,6 +11678,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11866,8 +11989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A479" sqref="A479"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32122,11 +32245,44 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="472" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>3795</v>
       </c>
       <c r="B472" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="I472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="J472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="K472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="L472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="M472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="N472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="O472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="P472" s="5" t="s">
+        <v>3795</v>
+      </c>
+      <c r="Q472" s="5" t="s">
         <v>3795</v>
       </c>
     </row>
@@ -32137,6 +32293,39 @@
       <c r="B473" s="2" t="s">
         <v>3796</v>
       </c>
+      <c r="G473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="H473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="I473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="J473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="K473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="L473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="M473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="N473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="O473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="P473" s="6" t="s">
+        <v>3796</v>
+      </c>
+      <c r="Q473" s="6" t="s">
+        <v>3796</v>
+      </c>
     </row>
     <row r="474" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
@@ -32145,6 +32334,39 @@
       <c r="B474" s="2" t="s">
         <v>3797</v>
       </c>
+      <c r="G474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="H474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="I474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="J474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="K474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="L474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="M474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="N474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="O474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="P474" s="6" t="s">
+        <v>3797</v>
+      </c>
+      <c r="Q474" s="6" t="s">
+        <v>3797</v>
+      </c>
     </row>
     <row r="475" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
@@ -32153,6 +32375,39 @@
       <c r="B475" s="2" t="s">
         <v>3798</v>
       </c>
+      <c r="G475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="H475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="I475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="J475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="K475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="L475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="M475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="N475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="O475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="P475" s="6" t="s">
+        <v>3798</v>
+      </c>
+      <c r="Q475" s="6" t="s">
+        <v>3798</v>
+      </c>
     </row>
     <row r="476" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
@@ -32161,6 +32416,39 @@
       <c r="B476" s="3" t="s">
         <v>3799</v>
       </c>
+      <c r="G476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="I476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="J476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="K476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="L476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="M476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="N476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="O476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="P476" s="5" t="s">
+        <v>3799</v>
+      </c>
+      <c r="Q476" s="5" t="s">
+        <v>3799</v>
+      </c>
     </row>
     <row r="477" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
@@ -32169,52 +32457,283 @@
       <c r="B477" s="3" t="s">
         <v>3800</v>
       </c>
+      <c r="G477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="H477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="I477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="J477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="K477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="L477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="M477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="N477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="O477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="P477" s="5" t="s">
+        <v>3800</v>
+      </c>
+      <c r="Q477" s="5" t="s">
+        <v>3800</v>
+      </c>
     </row>
     <row r="478" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>3801</v>
+        <v>3807</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>3801</v>
       </c>
+      <c r="G478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="I478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="J478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="K478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="L478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="M478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="N478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="O478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="P478" s="5" t="s">
+        <v>3809</v>
+      </c>
+      <c r="Q478" s="5" t="s">
+        <v>3809</v>
+      </c>
     </row>
     <row r="479" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>3802</v>
+        <v>3808</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>3802</v>
       </c>
-    </row>
-    <row r="480" spans="1:17" ht="68" x14ac:dyDescent="0.2">
+      <c r="G479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="H479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="I479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="J479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="K479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="L479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="M479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="N479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="O479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="P479" s="5" t="s">
+        <v>3810</v>
+      </c>
+      <c r="Q479" s="5" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17" ht="119" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>3804</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>3804</v>
       </c>
-    </row>
-    <row r="481" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="G480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="J480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="K480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="L480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="M480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="N480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="O480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="P480" s="5" t="s">
+        <v>3804</v>
+      </c>
+      <c r="Q480" s="5" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="481" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
         <v>3805</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>3805</v>
       </c>
-    </row>
-    <row r="482" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="G481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="H481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="I481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="J481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="K481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="L481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="M481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="N481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="O481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="P481" s="7" t="s">
+        <v>3805</v>
+      </c>
+      <c r="Q481" s="7" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
         <v>3806</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>3806</v>
       </c>
-    </row>
-    <row r="483" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="G482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="H482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="I482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="J482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="K482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="L482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="M482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="N482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="O482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="P482" s="7" t="s">
+        <v>3806</v>
+      </c>
+      <c r="Q482" s="7" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>2871</v>
       </c>
       <c r="B483" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="G483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="I483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="J483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="K483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="L483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="N483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="O483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="P483" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="Q483" s="7" t="s">
         <v>2871</v>
       </c>
     </row>

--- a/utils/localization/resources/backup/out_meta_meta.xlsx
+++ b/utils/localization/resources/backup/out_meta_meta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31553F-21B0-444F-B1AA-A230ABD1EAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140B438-2936-3445-BD9B-6F45AF945402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="3811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="3812">
   <si>
     <t>Key</t>
   </si>
@@ -11496,52 +11496,6 @@
   </si>
   <si>
     <r>
-      <t>Translated &lt;contribution-count&gt; &lt;language&gt; &lt;span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4A86E8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sentence(s)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Validated &lt;validation-count&gt; &lt;language&gt; &lt;span&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF4A86E8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sentence(s)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;/span&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Translated &lt;contribution-count&gt; &lt;language&gt; &lt;s&gt;</t>
     </r>
     <r>
@@ -11584,6 +11538,37 @@
         <family val="2"/>
       </rPr>
       <t>&lt;/s&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>You have changed the contribution language from &lt;old language&gt; to &lt;new language&gt;, we will be redirecting you to homepage to start participating again.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validated &lt;validation-count&gt; &lt;language&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentence(s)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Translated &lt;contribution-count&gt; &lt;language&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4A86E8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sentence(s)</t>
     </r>
   </si>
 </sst>
@@ -11989,8 +11974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="A480" sqref="A480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32493,92 +32478,92 @@
     </row>
     <row r="478" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>3801</v>
       </c>
       <c r="G478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="H478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="I478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="J478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="K478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="L478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="M478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="N478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="O478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="P478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="Q478" s="5" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="479" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>3808</v>
+        <v>3810</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>3802</v>
       </c>
       <c r="G479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="H479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="I479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="J479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="K479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="L479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="M479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="N479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="O479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="P479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="Q479" s="5" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="480" spans="1:17" ht="119" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>3804</v>
+        <v>3809</v>
       </c>
       <c r="G480" s="5" t="s">
         <v>3804</v>

--- a/utils/localization/resources/backup/out_meta_meta.xlsx
+++ b/utils/localization/resources/backup/out_meta_meta.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C140B438-2936-3445-BD9B-6F45AF945402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C8E4D-3837-D047-9F68-47F496B749E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8142,9 +8142,6 @@
     <t>Andhra Pradesh</t>
   </si>
   <si>
-    <t>Arunanchal Pradesh</t>
-  </si>
-  <si>
     <t>Assam</t>
   </si>
   <si>
@@ -11570,6 +11567,9 @@
       </rPr>
       <t>sentence(s)</t>
     </r>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
   </si>
 </sst>
 </file>
@@ -11974,8 +11974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="A480" sqref="A480"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19522,7 +19522,7 @@
         <v>1803</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>1803</v>
@@ -19730,7 +19730,7 @@
         <v>1819</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>1819</v>
@@ -19771,7 +19771,7 @@
         <v>1820</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>1820</v>
@@ -19853,7 +19853,7 @@
         <v>1822</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>1822</v>
@@ -19979,7 +19979,7 @@
         <v>1836</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>1836</v>
@@ -20020,7 +20020,7 @@
         <v>1837</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>1837</v>
@@ -20102,7 +20102,7 @@
         <v>1839</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>1839</v>
@@ -20231,7 +20231,7 @@
         <v>1864</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>1864</v>
@@ -20272,7 +20272,7 @@
         <v>1865</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>1865</v>
@@ -20395,7 +20395,7 @@
         <v>1868</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>1868</v>
@@ -20612,7 +20612,7 @@
         <v>1908</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>1908</v>
@@ -20735,7 +20735,7 @@
         <v>1911</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>1911</v>
@@ -20776,7 +20776,7 @@
         <v>1912</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>1912</v>
@@ -20817,7 +20817,7 @@
         <v>1913</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>1913</v>
@@ -21113,7 +21113,7 @@
         <v>1922</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="G212" s="2" t="s">
         <v>1922</v>
@@ -21154,7 +21154,7 @@
         <v>1923</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="G213" s="2" t="s">
         <v>1923</v>
@@ -21195,7 +21195,7 @@
         <v>1924</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>1924</v>
@@ -21236,7 +21236,7 @@
         <v>1925</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>1925</v>
@@ -21403,7 +21403,7 @@
         <v>1929</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>1929</v>
@@ -21573,7 +21573,7 @@
         <v>1944</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>1944</v>
@@ -21614,7 +21614,7 @@
         <v>1945</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="G224" s="2" t="s">
         <v>1945</v>
@@ -21699,7 +21699,7 @@
         <v>1958</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>1958</v>
@@ -22162,7 +22162,7 @@
         <v>1970</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>1970</v>
@@ -24346,7 +24346,7 @@
     </row>
     <row r="288" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>2391</v>
@@ -26503,1750 +26503,1750 @@
     </row>
     <row r="339" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="L339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="N339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="P339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
       <c r="Q339" s="2" t="s">
-        <v>2703</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="340" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="L340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="N340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="O340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="P340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="Q340" s="2" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="341" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="J341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="K341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="L341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="N341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="O341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="P341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="Q341" s="2" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="342" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="L342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="N342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="O342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="P342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="Q342" s="2" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="343" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="J343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="L343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="M343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="N343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="O343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="P343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="Q343" s="2" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="344" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="L344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="M344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="N344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="O344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="P344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="Q344" s="2" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="345" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="H345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="J345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="L345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="N345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="O345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="P345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="Q345" s="2" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="346" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="L346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="N346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="O346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="P346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="Q346" s="2" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="347" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="N347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="P347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="Q347" s="2" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="348" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="L348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="N348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="O348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="P348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="Q348" s="2" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="L349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="N349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="O349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="P349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="Q349" s="2" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="350" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="L350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="M350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="N350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="O350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="P350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="Q350" s="2" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="J351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="N351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="O351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="P351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="Q351" s="2" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="352" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="N352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="O352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="P352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="Q352" s="2" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="353" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="H353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="J353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="L353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="M353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="N353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="O353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="P353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="Q353" s="2" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="354" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="H354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="J354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="L354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="M354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="N354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="O354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="P354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="Q354" s="2" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="355" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="J355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="L355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="M355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="N355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="O355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="P355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="Q355" s="2" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="356" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="H356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="L356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="M356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="N356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="O356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="P356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="Q356" s="2" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="357" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="H357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="L357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="N357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="O357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="P357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="Q357" s="2" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="358" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="L358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="M358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="N358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="O358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="P358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="Q358" s="2" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="359" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="L359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="M359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="N359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="O359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="P359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="Q359" s="2" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="360" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="H360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="J360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="L360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="M360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="N360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="O360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="P360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="Q360" s="2" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="361" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="H361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="L361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="M361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="N361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="O361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="P361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="Q361" s="2" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="362" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="J362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="L362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="M362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="N362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="O362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="P362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="Q362" s="2" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="363" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="L363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="M363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="N363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="O363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="P363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="Q363" s="2" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="364" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="J364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="L364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="M364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="N364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="O364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="P364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="Q364" s="2" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="365" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="J365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="L365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="M365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="N365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="O365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="P365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="Q365" s="2" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="366" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="J366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="L366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="M366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="N366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="O366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="P366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="Q366" s="2" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="367" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="H367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="J367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="L367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="M367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="N367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="O367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="P367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="Q367" s="2" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="368" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="H368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="J368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="L368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="M368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="N368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="O368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="P368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="Q368" s="2" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="369" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="H369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="J369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="L369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="M369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="N369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="O369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="P369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="Q369" s="2" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="370" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="H370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="J370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="L370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="M370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="N370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="O370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="P370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="Q370" s="2" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="371" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="H371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="J371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="L371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="M371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="N371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="O371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="P371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="Q371" s="2" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="372" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G372" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="H372" s="2" t="s">
         <v>2737</v>
       </c>
-      <c r="H372" s="2" t="s">
+      <c r="I372" s="2" t="s">
         <v>2738</v>
       </c>
-      <c r="I372" s="2" t="s">
+      <c r="J372" s="2" t="s">
         <v>2739</v>
       </c>
-      <c r="J372" s="2" t="s">
+      <c r="K372" s="2" t="s">
         <v>2740</v>
       </c>
-      <c r="K372" s="2" t="s">
+      <c r="L372" s="2" t="s">
         <v>2741</v>
       </c>
-      <c r="L372" s="2" t="s">
+      <c r="M372" s="2" t="s">
         <v>2742</v>
       </c>
-      <c r="M372" s="2" t="s">
+      <c r="N372" s="2" t="s">
         <v>2743</v>
       </c>
-      <c r="N372" s="2" t="s">
+      <c r="O372" s="2" t="s">
         <v>2744</v>
       </c>
-      <c r="O372" s="2" t="s">
+      <c r="P372" s="2" t="s">
         <v>2745</v>
       </c>
-      <c r="P372" s="2" t="s">
+      <c r="Q372" s="2" t="s">
         <v>2746</v>
-      </c>
-      <c r="Q372" s="2" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="373" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G373" s="2" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H373" s="2" t="s">
         <v>2749</v>
       </c>
-      <c r="H373" s="2" t="s">
+      <c r="I373" s="2" t="s">
         <v>2750</v>
       </c>
-      <c r="I373" s="2" t="s">
+      <c r="J373" s="2" t="s">
         <v>2751</v>
       </c>
-      <c r="J373" s="2" t="s">
+      <c r="K373" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="L373" s="2" t="s">
         <v>2753</v>
       </c>
-      <c r="L373" s="2" t="s">
+      <c r="M373" s="2" t="s">
         <v>2754</v>
       </c>
-      <c r="M373" s="2" t="s">
+      <c r="N373" s="2" t="s">
         <v>2755</v>
       </c>
-      <c r="N373" s="2" t="s">
+      <c r="O373" s="2" t="s">
         <v>2756</v>
       </c>
-      <c r="O373" s="2" t="s">
+      <c r="P373" s="2" t="s">
         <v>2757</v>
       </c>
-      <c r="P373" s="2" t="s">
+      <c r="Q373" s="2" t="s">
         <v>2758</v>
-      </c>
-      <c r="Q373" s="2" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="374" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>2760</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="C374" s="2" t="s">
         <v>2761</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="D374" s="2" t="s">
         <v>2762</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="G374" s="2" t="s">
         <v>2763</v>
       </c>
-      <c r="G374" s="2" t="s">
+      <c r="H374" s="2" t="s">
         <v>2764</v>
       </c>
-      <c r="H374" s="2" t="s">
+      <c r="I374" s="2" t="s">
         <v>2765</v>
       </c>
-      <c r="I374" s="2" t="s">
+      <c r="J374" s="2" t="s">
         <v>2766</v>
       </c>
-      <c r="J374" s="2" t="s">
+      <c r="K374" s="2" t="s">
         <v>2767</v>
       </c>
-      <c r="K374" s="2" t="s">
+      <c r="L374" s="2" t="s">
         <v>2768</v>
       </c>
-      <c r="L374" s="2" t="s">
+      <c r="M374" s="2" t="s">
         <v>2769</v>
       </c>
-      <c r="M374" s="2" t="s">
+      <c r="N374" s="2" t="s">
         <v>2770</v>
       </c>
-      <c r="N374" s="2" t="s">
+      <c r="O374" s="2" t="s">
         <v>2771</v>
       </c>
-      <c r="O374" s="2" t="s">
+      <c r="P374" s="2" t="s">
         <v>2772</v>
       </c>
-      <c r="P374" s="2" t="s">
-        <v>2773</v>
-      </c>
       <c r="Q374" s="2" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="375" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>2774</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>2774</v>
-      </c>
-      <c r="C375" s="2" t="s">
+      <c r="G375" s="2" t="s">
         <v>2775</v>
       </c>
-      <c r="G375" s="2" t="s">
+      <c r="H375" s="2" t="s">
         <v>2776</v>
       </c>
-      <c r="H375" s="2" t="s">
+      <c r="I375" s="2" t="s">
         <v>2777</v>
       </c>
-      <c r="I375" s="2" t="s">
+      <c r="J375" s="2" t="s">
         <v>2778</v>
       </c>
-      <c r="J375" s="2" t="s">
+      <c r="K375" s="2" t="s">
         <v>2779</v>
       </c>
-      <c r="K375" s="2" t="s">
+      <c r="L375" s="2" t="s">
         <v>2780</v>
       </c>
-      <c r="L375" s="2" t="s">
+      <c r="M375" s="2" t="s">
         <v>2781</v>
       </c>
-      <c r="M375" s="2" t="s">
+      <c r="N375" s="2" t="s">
         <v>2782</v>
       </c>
-      <c r="N375" s="2" t="s">
+      <c r="O375" s="2" t="s">
         <v>2783</v>
       </c>
-      <c r="O375" s="2" t="s">
+      <c r="P375" s="2" t="s">
         <v>2784</v>
       </c>
-      <c r="P375" s="2" t="s">
+      <c r="Q375" s="2" t="s">
         <v>2785</v>
-      </c>
-      <c r="Q375" s="2" t="s">
-        <v>2786</v>
       </c>
     </row>
     <row r="376" spans="1:17" ht="288" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G376" s="2" t="s">
         <v>2787</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C376" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G376" s="2" t="s">
+      <c r="H376" s="2" t="s">
         <v>2788</v>
       </c>
-      <c r="H376" s="2" t="s">
+      <c r="I376" s="2" t="s">
         <v>2789</v>
       </c>
-      <c r="I376" s="2" t="s">
+      <c r="J376" s="2" t="s">
         <v>2790</v>
       </c>
-      <c r="J376" s="2" t="s">
+      <c r="K376" s="2" t="s">
         <v>2791</v>
       </c>
-      <c r="K376" s="2" t="s">
+      <c r="L376" s="2" t="s">
         <v>2792</v>
       </c>
-      <c r="L376" s="2" t="s">
+      <c r="M376" s="2" t="s">
         <v>2793</v>
       </c>
-      <c r="M376" s="2" t="s">
+      <c r="N376" s="2" t="s">
         <v>2794</v>
       </c>
-      <c r="N376" s="2" t="s">
+      <c r="O376" s="2" t="s">
         <v>2795</v>
       </c>
-      <c r="O376" s="2" t="s">
+      <c r="P376" s="2" t="s">
         <v>2796</v>
       </c>
-      <c r="P376" s="2" t="s">
+      <c r="Q376" s="2" t="s">
         <v>2797</v>
-      </c>
-      <c r="Q376" s="2" t="s">
-        <v>2798</v>
       </c>
     </row>
     <row r="377" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G377" s="2" t="s">
         <v>2799</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>2799</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G377" s="2" t="s">
+      <c r="H377" s="2" t="s">
         <v>2800</v>
       </c>
-      <c r="H377" s="2" t="s">
+      <c r="I377" s="2" t="s">
         <v>2801</v>
       </c>
-      <c r="I377" s="2" t="s">
+      <c r="J377" s="2" t="s">
         <v>2802</v>
       </c>
-      <c r="J377" s="2" t="s">
+      <c r="K377" s="2" t="s">
         <v>2803</v>
       </c>
-      <c r="K377" s="2" t="s">
+      <c r="L377" s="2" t="s">
         <v>2804</v>
       </c>
-      <c r="L377" s="2" t="s">
+      <c r="M377" s="2" t="s">
         <v>2805</v>
       </c>
-      <c r="M377" s="2" t="s">
+      <c r="N377" s="2" t="s">
         <v>2806</v>
       </c>
-      <c r="N377" s="2" t="s">
+      <c r="O377" s="2" t="s">
         <v>2807</v>
       </c>
-      <c r="O377" s="2" t="s">
+      <c r="P377" s="2" t="s">
         <v>2808</v>
       </c>
-      <c r="P377" s="2" t="s">
+      <c r="Q377" s="2" t="s">
         <v>2809</v>
-      </c>
-      <c r="Q377" s="2" t="s">
-        <v>2810</v>
       </c>
     </row>
     <row r="378" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>2811</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>2811</v>
-      </c>
-      <c r="G378" s="2" t="s">
+      <c r="H378" s="2" t="s">
         <v>2812</v>
       </c>
-      <c r="H378" s="2" t="s">
+      <c r="I378" s="2" t="s">
         <v>2813</v>
       </c>
-      <c r="I378" s="2" t="s">
+      <c r="J378" s="2" t="s">
         <v>2814</v>
       </c>
-      <c r="J378" s="2" t="s">
+      <c r="K378" s="2" t="s">
         <v>2815</v>
       </c>
-      <c r="K378" s="2" t="s">
+      <c r="L378" s="2" t="s">
         <v>2816</v>
       </c>
-      <c r="L378" s="2" t="s">
+      <c r="M378" s="2" t="s">
         <v>2817</v>
       </c>
-      <c r="M378" s="2" t="s">
+      <c r="N378" s="2" t="s">
         <v>2818</v>
       </c>
-      <c r="N378" s="2" t="s">
+      <c r="O378" s="2" t="s">
         <v>2819</v>
       </c>
-      <c r="O378" s="2" t="s">
+      <c r="P378" s="2" t="s">
         <v>2820</v>
       </c>
-      <c r="P378" s="2" t="s">
+      <c r="Q378" s="2" t="s">
         <v>2821</v>
-      </c>
-      <c r="Q378" s="2" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="379" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>2822</v>
+      </c>
+      <c r="G379" s="2" t="s">
         <v>2823</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>2823</v>
-      </c>
-      <c r="G379" s="2" t="s">
+      <c r="H379" s="2" t="s">
         <v>2824</v>
       </c>
-      <c r="H379" s="2" t="s">
+      <c r="I379" s="2" t="s">
         <v>2825</v>
       </c>
-      <c r="I379" s="2" t="s">
+      <c r="J379" s="2" t="s">
         <v>2826</v>
       </c>
-      <c r="J379" s="2" t="s">
+      <c r="K379" s="2" t="s">
         <v>2827</v>
       </c>
-      <c r="K379" s="2" t="s">
+      <c r="L379" s="2" t="s">
         <v>2828</v>
       </c>
-      <c r="L379" s="2" t="s">
+      <c r="M379" s="2" t="s">
         <v>2829</v>
       </c>
-      <c r="M379" s="2" t="s">
+      <c r="N379" s="2" t="s">
         <v>2830</v>
       </c>
-      <c r="N379" s="2" t="s">
+      <c r="O379" s="2" t="s">
         <v>2831</v>
       </c>
-      <c r="O379" s="2" t="s">
+      <c r="P379" s="2" t="s">
         <v>2832</v>
       </c>
-      <c r="P379" s="2" t="s">
+      <c r="Q379" s="2" t="s">
         <v>2833</v>
-      </c>
-      <c r="Q379" s="2" t="s">
-        <v>2834</v>
       </c>
     </row>
     <row r="380" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>2834</v>
+      </c>
+      <c r="G380" s="2" t="s">
         <v>2835</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>2835</v>
-      </c>
-      <c r="G380" s="2" t="s">
+      <c r="H380" s="2" t="s">
         <v>2836</v>
       </c>
-      <c r="H380" s="2" t="s">
+      <c r="I380" s="2" t="s">
         <v>2837</v>
       </c>
-      <c r="I380" s="2" t="s">
+      <c r="J380" s="2" t="s">
         <v>2838</v>
       </c>
-      <c r="J380" s="2" t="s">
+      <c r="K380" s="2" t="s">
         <v>2839</v>
       </c>
-      <c r="K380" s="2" t="s">
+      <c r="L380" s="2" t="s">
         <v>2840</v>
       </c>
-      <c r="L380" s="2" t="s">
+      <c r="M380" s="2" t="s">
         <v>2841</v>
       </c>
-      <c r="M380" s="2" t="s">
+      <c r="N380" s="2" t="s">
         <v>2842</v>
       </c>
-      <c r="N380" s="2" t="s">
+      <c r="O380" s="2" t="s">
         <v>2843</v>
       </c>
-      <c r="O380" s="2" t="s">
+      <c r="P380" s="2" t="s">
         <v>2844</v>
       </c>
-      <c r="P380" s="2" t="s">
+      <c r="Q380" s="2" t="s">
         <v>2845</v>
-      </c>
-      <c r="Q380" s="2" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row r="381" spans="1:17" ht="112" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>496</v>
@@ -28255,7 +28255,7 @@
         <v>188</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="G381" s="2" t="s">
         <v>498</v>
@@ -28293,1855 +28293,1855 @@
     </row>
     <row r="382" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G382" s="2" t="s">
         <v>2849</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>2849</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G382" s="2" t="s">
+      <c r="H382" s="2" t="s">
         <v>2850</v>
       </c>
-      <c r="H382" s="2" t="s">
+      <c r="I382" s="2" t="s">
         <v>2851</v>
       </c>
-      <c r="I382" s="2" t="s">
+      <c r="J382" s="2" t="s">
         <v>2852</v>
       </c>
-      <c r="J382" s="2" t="s">
+      <c r="K382" s="2" t="s">
         <v>2853</v>
       </c>
-      <c r="K382" s="2" t="s">
+      <c r="L382" s="2" t="s">
         <v>2854</v>
       </c>
-      <c r="L382" s="2" t="s">
+      <c r="M382" s="2" t="s">
         <v>2855</v>
       </c>
-      <c r="M382" s="2" t="s">
+      <c r="N382" s="2" t="s">
         <v>2856</v>
       </c>
-      <c r="N382" s="2" t="s">
+      <c r="O382" s="2" t="s">
         <v>2857</v>
       </c>
-      <c r="O382" s="2" t="s">
+      <c r="P382" s="2" t="s">
         <v>2858</v>
       </c>
-      <c r="P382" s="2" t="s">
+      <c r="Q382" s="2" t="s">
         <v>2859</v>
-      </c>
-      <c r="Q382" s="2" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row r="383" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G383" s="2" t="s">
         <v>2861</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>2861</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G383" s="2" t="s">
-        <v>2862</v>
       </c>
       <c r="H383" s="2" t="s">
         <v>2270</v>
       </c>
       <c r="I383" s="2" t="s">
+        <v>2862</v>
+      </c>
+      <c r="J383" s="2" t="s">
         <v>2863</v>
       </c>
-      <c r="J383" s="2" t="s">
+      <c r="K383" s="2" t="s">
         <v>2864</v>
       </c>
-      <c r="K383" s="2" t="s">
+      <c r="L383" s="2" t="s">
         <v>2865</v>
-      </c>
-      <c r="L383" s="2" t="s">
-        <v>2866</v>
       </c>
       <c r="M383" s="2" t="s">
         <v>2275</v>
       </c>
       <c r="N383" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="O383" s="2" t="s">
         <v>2867</v>
       </c>
-      <c r="O383" s="2" t="s">
+      <c r="P383" s="2" t="s">
         <v>2868</v>
       </c>
-      <c r="P383" s="2" t="s">
+      <c r="Q383" s="2" t="s">
         <v>2869</v>
-      </c>
-      <c r="Q383" s="2" t="s">
-        <v>2870</v>
       </c>
     </row>
     <row r="384" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G384" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="H384" s="2" t="s">
         <v>2872</v>
       </c>
-      <c r="H384" s="2" t="s">
+      <c r="I384" s="2" t="s">
         <v>2873</v>
       </c>
-      <c r="I384" s="2" t="s">
+      <c r="J384" s="2" t="s">
         <v>2874</v>
       </c>
-      <c r="J384" s="2" t="s">
+      <c r="K384" s="2" t="s">
         <v>2875</v>
       </c>
-      <c r="K384" s="2" t="s">
+      <c r="L384" s="2" t="s">
         <v>2876</v>
       </c>
-      <c r="L384" s="2" t="s">
+      <c r="M384" s="2" t="s">
         <v>2877</v>
       </c>
-      <c r="M384" s="2" t="s">
+      <c r="N384" s="2" t="s">
         <v>2878</v>
       </c>
-      <c r="N384" s="2" t="s">
+      <c r="O384" s="2" t="s">
         <v>2879</v>
       </c>
-      <c r="O384" s="2" t="s">
+      <c r="P384" s="2" t="s">
         <v>2880</v>
       </c>
-      <c r="P384" s="2" t="s">
+      <c r="Q384" s="2" t="s">
         <v>2881</v>
-      </c>
-      <c r="Q384" s="2" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="385" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G385" s="2" t="s">
         <v>2883</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>2883</v>
-      </c>
-      <c r="G385" s="2" t="s">
+      <c r="H385" s="2" t="s">
         <v>2884</v>
       </c>
-      <c r="H385" s="2" t="s">
+      <c r="I385" s="2" t="s">
         <v>2885</v>
       </c>
-      <c r="I385" s="2" t="s">
+      <c r="J385" s="2" t="s">
         <v>2886</v>
       </c>
-      <c r="J385" s="2" t="s">
+      <c r="K385" s="2" t="s">
         <v>2887</v>
       </c>
-      <c r="K385" s="2" t="s">
+      <c r="L385" s="2" t="s">
         <v>2888</v>
       </c>
-      <c r="L385" s="2" t="s">
+      <c r="M385" s="2" t="s">
         <v>2889</v>
       </c>
-      <c r="M385" s="2" t="s">
+      <c r="N385" s="2" t="s">
         <v>2890</v>
       </c>
-      <c r="N385" s="2" t="s">
+      <c r="O385" s="2" t="s">
         <v>2891</v>
       </c>
-      <c r="O385" s="2" t="s">
+      <c r="P385" s="2" t="s">
         <v>2892</v>
       </c>
-      <c r="P385" s="2" t="s">
+      <c r="Q385" s="2" t="s">
         <v>2893</v>
-      </c>
-      <c r="Q385" s="2" t="s">
-        <v>2894</v>
       </c>
     </row>
     <row r="386" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G386" s="2" t="s">
+        <v>2895</v>
+      </c>
+      <c r="H386" s="2" t="s">
         <v>2896</v>
       </c>
-      <c r="H386" s="2" t="s">
+      <c r="I386" s="2" t="s">
         <v>2897</v>
       </c>
-      <c r="I386" s="2" t="s">
+      <c r="J386" s="2" t="s">
         <v>2898</v>
       </c>
-      <c r="J386" s="2" t="s">
+      <c r="K386" s="2" t="s">
         <v>2899</v>
       </c>
-      <c r="K386" s="2" t="s">
+      <c r="L386" s="2" t="s">
         <v>2900</v>
       </c>
-      <c r="L386" s="2" t="s">
+      <c r="M386" s="2" t="s">
         <v>2901</v>
       </c>
-      <c r="M386" s="2" t="s">
+      <c r="N386" s="2" t="s">
         <v>2902</v>
       </c>
-      <c r="N386" s="2" t="s">
+      <c r="O386" s="2" t="s">
         <v>2903</v>
       </c>
-      <c r="O386" s="2" t="s">
+      <c r="P386" s="2" t="s">
         <v>2904</v>
       </c>
-      <c r="P386" s="2" t="s">
+      <c r="Q386" s="2" t="s">
         <v>2905</v>
-      </c>
-      <c r="Q386" s="2" t="s">
-        <v>2906</v>
       </c>
     </row>
     <row r="387" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>726</v>
       </c>
       <c r="G387" s="2" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H387" s="2" t="s">
         <v>2908</v>
       </c>
-      <c r="H387" s="2" t="s">
+      <c r="I387" s="2" t="s">
         <v>2909</v>
       </c>
-      <c r="I387" s="2" t="s">
+      <c r="J387" s="2" t="s">
         <v>2910</v>
       </c>
-      <c r="J387" s="2" t="s">
+      <c r="K387" s="2" t="s">
         <v>2911</v>
       </c>
-      <c r="K387" s="2" t="s">
+      <c r="L387" s="2" t="s">
         <v>2912</v>
       </c>
-      <c r="L387" s="2" t="s">
+      <c r="M387" s="2" t="s">
         <v>2913</v>
       </c>
-      <c r="M387" s="2" t="s">
+      <c r="N387" s="2" t="s">
         <v>2914</v>
       </c>
-      <c r="N387" s="2" t="s">
+      <c r="O387" s="2" t="s">
         <v>2915</v>
       </c>
-      <c r="O387" s="2" t="s">
+      <c r="P387" s="2" t="s">
         <v>2916</v>
       </c>
-      <c r="P387" s="2" t="s">
+      <c r="Q387" s="2" t="s">
         <v>2917</v>
-      </c>
-      <c r="Q387" s="2" t="s">
-        <v>2918</v>
       </c>
     </row>
     <row r="388" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G388" s="2" t="s">
         <v>2919</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="H388" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="J388" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="K388" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="L388" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M388" s="2" t="s">
         <v>2919</v>
       </c>
-      <c r="C388" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G388" s="2" t="s">
-        <v>2920</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>2921</v>
-      </c>
-      <c r="I388" s="2" t="s">
-        <v>2922</v>
-      </c>
-      <c r="J388" s="2" t="s">
-        <v>2923</v>
-      </c>
-      <c r="K388" s="2" t="s">
-        <v>2924</v>
-      </c>
-      <c r="L388" s="2" t="s">
+      <c r="N388" s="2" t="s">
         <v>2925</v>
       </c>
-      <c r="M388" s="2" t="s">
-        <v>2920</v>
-      </c>
-      <c r="N388" s="2" t="s">
+      <c r="O388" s="2" t="s">
         <v>2926</v>
       </c>
-      <c r="O388" s="2" t="s">
+      <c r="P388" s="2" t="s">
         <v>2927</v>
       </c>
-      <c r="P388" s="2" t="s">
+      <c r="Q388" s="2" t="s">
         <v>2928</v>
-      </c>
-      <c r="Q388" s="2" t="s">
-        <v>2929</v>
       </c>
     </row>
     <row r="389" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G389" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H389" s="2" t="s">
         <v>2931</v>
       </c>
-      <c r="H389" s="2" t="s">
+      <c r="I389" s="2" t="s">
         <v>2932</v>
       </c>
-      <c r="I389" s="2" t="s">
+      <c r="J389" s="2" t="s">
         <v>2933</v>
       </c>
-      <c r="J389" s="2" t="s">
+      <c r="K389" s="2" t="s">
         <v>2934</v>
       </c>
-      <c r="K389" s="2" t="s">
+      <c r="L389" s="2" t="s">
         <v>2935</v>
       </c>
-      <c r="L389" s="2" t="s">
+      <c r="M389" s="2" t="s">
+        <v>2930</v>
+      </c>
+      <c r="N389" s="2" t="s">
         <v>2936</v>
       </c>
-      <c r="M389" s="2" t="s">
-        <v>2931</v>
-      </c>
-      <c r="N389" s="2" t="s">
+      <c r="O389" s="2" t="s">
         <v>2937</v>
       </c>
-      <c r="O389" s="2" t="s">
+      <c r="P389" s="2" t="s">
         <v>2938</v>
       </c>
-      <c r="P389" s="2" t="s">
+      <c r="Q389" s="2" t="s">
         <v>2939</v>
-      </c>
-      <c r="Q389" s="2" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="390" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G390" s="2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="H390" s="2" t="s">
         <v>2942</v>
       </c>
-      <c r="H390" s="2" t="s">
+      <c r="I390" s="2" t="s">
         <v>2943</v>
       </c>
-      <c r="I390" s="2" t="s">
+      <c r="J390" s="2" t="s">
         <v>2944</v>
       </c>
-      <c r="J390" s="2" t="s">
+      <c r="K390" s="2" t="s">
         <v>2945</v>
       </c>
-      <c r="K390" s="2" t="s">
+      <c r="L390" s="2" t="s">
         <v>2946</v>
       </c>
-      <c r="L390" s="2" t="s">
+      <c r="M390" s="2" t="s">
         <v>2947</v>
       </c>
-      <c r="M390" s="2" t="s">
+      <c r="N390" s="2" t="s">
         <v>2948</v>
       </c>
-      <c r="N390" s="2" t="s">
+      <c r="O390" s="2" t="s">
         <v>2949</v>
       </c>
-      <c r="O390" s="2" t="s">
+      <c r="P390" s="2" t="s">
         <v>2950</v>
       </c>
-      <c r="P390" s="2" t="s">
+      <c r="Q390" s="2" t="s">
         <v>2951</v>
-      </c>
-      <c r="Q390" s="2" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="391" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G391" s="2" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H391" s="2" t="s">
         <v>2954</v>
       </c>
-      <c r="H391" s="2" t="s">
+      <c r="I391" s="2" t="s">
         <v>2955</v>
       </c>
-      <c r="I391" s="2" t="s">
+      <c r="J391" s="2" t="s">
         <v>2956</v>
       </c>
-      <c r="J391" s="2" t="s">
+      <c r="K391" s="2" t="s">
         <v>2957</v>
       </c>
-      <c r="K391" s="2" t="s">
+      <c r="L391" s="2" t="s">
         <v>2958</v>
       </c>
-      <c r="L391" s="2" t="s">
+      <c r="M391" s="2" t="s">
         <v>2959</v>
       </c>
-      <c r="M391" s="2" t="s">
+      <c r="N391" s="2" t="s">
         <v>2960</v>
       </c>
-      <c r="N391" s="2" t="s">
+      <c r="O391" s="2" t="s">
         <v>2961</v>
       </c>
-      <c r="O391" s="2" t="s">
+      <c r="P391" s="2" t="s">
         <v>2962</v>
       </c>
-      <c r="P391" s="2" t="s">
+      <c r="Q391" s="2" t="s">
         <v>2963</v>
-      </c>
-      <c r="Q391" s="2" t="s">
-        <v>2964</v>
       </c>
     </row>
     <row r="392" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>726</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>2965</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>2966</v>
       </c>
-      <c r="H392" s="2" t="s">
+      <c r="I392" s="2" t="s">
         <v>2967</v>
       </c>
-      <c r="I392" s="2" t="s">
+      <c r="J392" s="2" t="s">
         <v>2968</v>
       </c>
-      <c r="J392" s="2" t="s">
+      <c r="K392" s="2" t="s">
         <v>2969</v>
       </c>
-      <c r="K392" s="2" t="s">
+      <c r="L392" s="2" t="s">
         <v>2970</v>
       </c>
-      <c r="L392" s="2" t="s">
+      <c r="M392" s="2" t="s">
         <v>2971</v>
       </c>
-      <c r="M392" s="2" t="s">
+      <c r="N392" s="2" t="s">
         <v>2972</v>
       </c>
-      <c r="N392" s="2" t="s">
+      <c r="O392" s="2" t="s">
         <v>2973</v>
       </c>
-      <c r="O392" s="2" t="s">
+      <c r="P392" s="2" t="s">
         <v>2974</v>
       </c>
-      <c r="P392" s="2" t="s">
+      <c r="Q392" s="2" t="s">
         <v>2975</v>
-      </c>
-      <c r="Q392" s="2" t="s">
-        <v>2976</v>
       </c>
     </row>
     <row r="393" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>2977</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="E393" s="2" t="s">
         <v>2978</v>
       </c>
-      <c r="E393" s="2" t="s">
+      <c r="G393" s="2" t="s">
         <v>2979</v>
       </c>
-      <c r="G393" s="2" t="s">
+      <c r="H393" s="2" t="s">
         <v>2980</v>
       </c>
-      <c r="H393" s="2" t="s">
+      <c r="I393" s="2" t="s">
         <v>2981</v>
       </c>
-      <c r="I393" s="2" t="s">
+      <c r="J393" s="2" t="s">
         <v>2982</v>
       </c>
-      <c r="J393" s="2" t="s">
+      <c r="K393" s="2" t="s">
         <v>2983</v>
       </c>
-      <c r="K393" s="2" t="s">
+      <c r="L393" s="2" t="s">
         <v>2984</v>
       </c>
-      <c r="L393" s="2" t="s">
+      <c r="M393" s="2" t="s">
         <v>2985</v>
       </c>
-      <c r="M393" s="2" t="s">
+      <c r="N393" s="2" t="s">
         <v>2986</v>
       </c>
-      <c r="N393" s="2" t="s">
+      <c r="O393" s="2" t="s">
         <v>2987</v>
       </c>
-      <c r="O393" s="2" t="s">
+      <c r="P393" s="2" t="s">
         <v>2988</v>
       </c>
-      <c r="P393" s="2" t="s">
+      <c r="Q393" s="2" t="s">
         <v>2989</v>
-      </c>
-      <c r="Q393" s="2" t="s">
-        <v>2990</v>
       </c>
     </row>
     <row r="394" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>2991</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="E394" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="G394" s="2" t="s">
         <v>2992</v>
       </c>
-      <c r="E394" s="2" t="s">
-        <v>2979</v>
-      </c>
-      <c r="G394" s="2" t="s">
+      <c r="H394" s="2" t="s">
         <v>2993</v>
       </c>
-      <c r="H394" s="2" t="s">
+      <c r="I394" s="2" t="s">
         <v>2994</v>
       </c>
-      <c r="I394" s="2" t="s">
+      <c r="J394" s="2" t="s">
         <v>2995</v>
       </c>
-      <c r="J394" s="2" t="s">
+      <c r="K394" s="2" t="s">
         <v>2996</v>
       </c>
-      <c r="K394" s="2" t="s">
+      <c r="L394" s="2" t="s">
         <v>2997</v>
       </c>
-      <c r="L394" s="2" t="s">
+      <c r="M394" s="2" t="s">
         <v>2998</v>
       </c>
-      <c r="M394" s="2" t="s">
+      <c r="N394" s="2" t="s">
         <v>2999</v>
       </c>
-      <c r="N394" s="2" t="s">
+      <c r="O394" s="2" t="s">
         <v>3000</v>
       </c>
-      <c r="O394" s="2" t="s">
+      <c r="P394" s="2" t="s">
         <v>3001</v>
       </c>
-      <c r="P394" s="2" t="s">
+      <c r="Q394" s="2" t="s">
         <v>3002</v>
-      </c>
-      <c r="Q394" s="2" t="s">
-        <v>3003</v>
       </c>
     </row>
     <row r="395" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>3004</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="E395" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="G395" s="2" t="s">
         <v>3005</v>
       </c>
-      <c r="E395" s="2" t="s">
-        <v>2979</v>
-      </c>
-      <c r="G395" s="2" t="s">
+      <c r="H395" s="2" t="s">
         <v>3006</v>
       </c>
-      <c r="H395" s="2" t="s">
+      <c r="I395" s="2" t="s">
         <v>3007</v>
       </c>
-      <c r="I395" s="2" t="s">
+      <c r="J395" s="2" t="s">
         <v>3008</v>
       </c>
-      <c r="J395" s="2" t="s">
+      <c r="K395" s="2" t="s">
         <v>3009</v>
       </c>
-      <c r="K395" s="2" t="s">
+      <c r="L395" s="2" t="s">
         <v>3010</v>
       </c>
-      <c r="L395" s="2" t="s">
+      <c r="M395" s="2" t="s">
         <v>3011</v>
       </c>
-      <c r="M395" s="2" t="s">
+      <c r="N395" s="2" t="s">
+        <v>3004</v>
+      </c>
+      <c r="O395" s="2" t="s">
         <v>3012</v>
       </c>
-      <c r="N395" s="2" t="s">
-        <v>3005</v>
-      </c>
-      <c r="O395" s="2" t="s">
-        <v>3013</v>
-      </c>
       <c r="P395" s="2" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="Q395" s="2" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="396" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>3013</v>
+      </c>
+      <c r="G396" s="2" t="s">
         <v>3014</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>3014</v>
-      </c>
-      <c r="G396" s="2" t="s">
+      <c r="H396" s="2" t="s">
         <v>3015</v>
       </c>
-      <c r="H396" s="2" t="s">
+      <c r="I396" s="2" t="s">
         <v>3016</v>
       </c>
-      <c r="I396" s="2" t="s">
+      <c r="J396" s="2" t="s">
         <v>3017</v>
       </c>
-      <c r="J396" s="2" t="s">
+      <c r="K396" s="2" t="s">
         <v>3018</v>
       </c>
-      <c r="K396" s="2" t="s">
+      <c r="L396" s="2" t="s">
         <v>3019</v>
       </c>
-      <c r="L396" s="2" t="s">
+      <c r="M396" s="2" t="s">
         <v>3020</v>
       </c>
-      <c r="M396" s="2" t="s">
+      <c r="N396" s="2" t="s">
         <v>3021</v>
       </c>
-      <c r="N396" s="2" t="s">
+      <c r="O396" s="2" t="s">
         <v>3022</v>
       </c>
-      <c r="O396" s="2" t="s">
+      <c r="P396" s="2" t="s">
         <v>3023</v>
       </c>
-      <c r="P396" s="2" t="s">
+      <c r="Q396" s="2" t="s">
         <v>3024</v>
-      </c>
-      <c r="Q396" s="2" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="397" spans="1:17" ht="144" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>3026</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>3027</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>849</v>
       </c>
       <c r="E397" s="2" t="s">
+        <v>3027</v>
+      </c>
+      <c r="F397" s="2" t="s">
         <v>3028</v>
       </c>
-      <c r="F397" s="2" t="s">
-        <v>3029</v>
-      </c>
       <c r="G397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="J397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="L397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="M397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="N397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="O397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="P397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="Q397" s="2" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="398" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>780</v>
       </c>
       <c r="G398" s="2" t="s">
+        <v>3030</v>
+      </c>
+      <c r="H398" s="2" t="s">
         <v>3031</v>
       </c>
-      <c r="H398" s="2" t="s">
+      <c r="I398" s="2" t="s">
         <v>3032</v>
       </c>
-      <c r="I398" s="2" t="s">
+      <c r="J398" s="2" t="s">
         <v>3033</v>
       </c>
-      <c r="J398" s="2" t="s">
+      <c r="K398" s="2" t="s">
         <v>3034</v>
       </c>
-      <c r="K398" s="2" t="s">
+      <c r="L398" s="2" t="s">
         <v>3035</v>
       </c>
-      <c r="L398" s="2" t="s">
+      <c r="M398" s="2" t="s">
         <v>3036</v>
       </c>
-      <c r="M398" s="2" t="s">
+      <c r="N398" s="2" t="s">
         <v>3037</v>
       </c>
-      <c r="N398" s="2" t="s">
+      <c r="O398" s="2" t="s">
         <v>3038</v>
       </c>
-      <c r="O398" s="2" t="s">
+      <c r="P398" s="2" t="s">
         <v>3039</v>
       </c>
-      <c r="P398" s="2" t="s">
+      <c r="Q398" s="2" t="s">
         <v>3040</v>
-      </c>
-      <c r="Q398" s="2" t="s">
-        <v>3041</v>
       </c>
     </row>
     <row r="399" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G399" s="2" t="s">
         <v>3042</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>3042</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G399" s="2" t="s">
+      <c r="H399" s="2" t="s">
         <v>3043</v>
       </c>
-      <c r="H399" s="2" t="s">
+      <c r="I399" s="2" t="s">
         <v>3044</v>
       </c>
-      <c r="I399" s="2" t="s">
+      <c r="J399" s="2" t="s">
         <v>3045</v>
       </c>
-      <c r="J399" s="2" t="s">
+      <c r="K399" s="2" t="s">
         <v>3046</v>
       </c>
-      <c r="K399" s="2" t="s">
+      <c r="L399" s="2" t="s">
         <v>3047</v>
       </c>
-      <c r="L399" s="2" t="s">
+      <c r="M399" s="2" t="s">
         <v>3048</v>
       </c>
-      <c r="M399" s="2" t="s">
+      <c r="N399" s="2" t="s">
         <v>3049</v>
       </c>
-      <c r="N399" s="2" t="s">
+      <c r="O399" s="2" t="s">
         <v>3050</v>
       </c>
-      <c r="O399" s="2" t="s">
+      <c r="P399" s="2" t="s">
         <v>3051</v>
       </c>
-      <c r="P399" s="2" t="s">
+      <c r="Q399" s="2" t="s">
         <v>3052</v>
-      </c>
-      <c r="Q399" s="2" t="s">
-        <v>3053</v>
       </c>
     </row>
     <row r="400" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G400" s="2" t="s">
         <v>3054</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>3054</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G400" s="2" t="s">
+      <c r="H400" s="2" t="s">
         <v>3055</v>
       </c>
-      <c r="H400" s="2" t="s">
+      <c r="I400" s="2" t="s">
         <v>3056</v>
       </c>
-      <c r="I400" s="2" t="s">
+      <c r="J400" s="2" t="s">
         <v>3057</v>
       </c>
-      <c r="J400" s="2" t="s">
+      <c r="K400" s="2" t="s">
         <v>3058</v>
       </c>
-      <c r="K400" s="2" t="s">
+      <c r="L400" s="2" t="s">
         <v>3059</v>
       </c>
-      <c r="L400" s="2" t="s">
+      <c r="M400" s="2" t="s">
         <v>3060</v>
       </c>
-      <c r="M400" s="2" t="s">
+      <c r="N400" s="2" t="s">
         <v>3061</v>
       </c>
-      <c r="N400" s="2" t="s">
+      <c r="O400" s="2" t="s">
         <v>3062</v>
       </c>
-      <c r="O400" s="2" t="s">
+      <c r="P400" s="2" t="s">
         <v>3063</v>
       </c>
-      <c r="P400" s="2" t="s">
+      <c r="Q400" s="2" t="s">
         <v>3064</v>
-      </c>
-      <c r="Q400" s="2" t="s">
-        <v>3065</v>
       </c>
     </row>
     <row r="401" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G401" s="2" t="s">
         <v>3066</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="H401" s="2" t="s">
+        <v>3067</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>3068</v>
+      </c>
+      <c r="J401" s="2" t="s">
+        <v>3069</v>
+      </c>
+      <c r="K401" s="2" t="s">
+        <v>3070</v>
+      </c>
+      <c r="L401" s="2" t="s">
+        <v>3071</v>
+      </c>
+      <c r="M401" s="2" t="s">
         <v>3066</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G401" s="2" t="s">
-        <v>3067</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>3068</v>
-      </c>
-      <c r="I401" s="2" t="s">
-        <v>3069</v>
-      </c>
-      <c r="J401" s="2" t="s">
-        <v>3070</v>
-      </c>
-      <c r="K401" s="2" t="s">
-        <v>3071</v>
-      </c>
-      <c r="L401" s="2" t="s">
+      <c r="N401" s="2" t="s">
         <v>3072</v>
       </c>
-      <c r="M401" s="2" t="s">
-        <v>3067</v>
-      </c>
-      <c r="N401" s="2" t="s">
+      <c r="O401" s="2" t="s">
         <v>3073</v>
       </c>
-      <c r="O401" s="2" t="s">
+      <c r="P401" s="2" t="s">
         <v>3074</v>
       </c>
-      <c r="P401" s="2" t="s">
+      <c r="Q401" s="2" t="s">
         <v>3075</v>
-      </c>
-      <c r="Q401" s="2" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="402" spans="1:17" ht="160" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G402" s="2" t="s">
         <v>3077</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>3077</v>
-      </c>
-      <c r="G402" s="2" t="s">
+      <c r="H402" s="2" t="s">
         <v>3078</v>
       </c>
-      <c r="H402" s="2" t="s">
+      <c r="I402" s="2" t="s">
         <v>3079</v>
       </c>
-      <c r="I402" s="2" t="s">
+      <c r="J402" s="2" t="s">
         <v>3080</v>
       </c>
-      <c r="J402" s="2" t="s">
+      <c r="K402" s="2" t="s">
         <v>3081</v>
       </c>
-      <c r="K402" s="2" t="s">
+      <c r="L402" s="2" t="s">
         <v>3082</v>
       </c>
-      <c r="L402" s="2" t="s">
+      <c r="M402" s="2" t="s">
         <v>3083</v>
       </c>
-      <c r="M402" s="2" t="s">
+      <c r="N402" s="2" t="s">
         <v>3084</v>
       </c>
-      <c r="N402" s="2" t="s">
+      <c r="O402" s="2" t="s">
         <v>3085</v>
       </c>
-      <c r="O402" s="2" t="s">
+      <c r="P402" s="2" t="s">
         <v>3086</v>
       </c>
-      <c r="P402" s="2" t="s">
+      <c r="Q402" s="2" t="s">
         <v>3087</v>
-      </c>
-      <c r="Q402" s="2" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="403" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>3066</v>
+      </c>
+      <c r="H403" s="2" t="s">
         <v>3089</v>
       </c>
-      <c r="B403" s="2" t="s">
-        <v>3089</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G403" s="2" t="s">
-        <v>3067</v>
-      </c>
-      <c r="H403" s="2" t="s">
+      <c r="I403" s="2" t="s">
         <v>3090</v>
       </c>
-      <c r="I403" s="2" t="s">
+      <c r="J403" s="2" t="s">
         <v>3091</v>
       </c>
-      <c r="J403" s="2" t="s">
+      <c r="K403" s="2" t="s">
         <v>3092</v>
       </c>
-      <c r="K403" s="2" t="s">
+      <c r="L403" s="2" t="s">
         <v>3093</v>
       </c>
-      <c r="L403" s="2" t="s">
+      <c r="M403" s="2" t="s">
         <v>3094</v>
       </c>
-      <c r="M403" s="2" t="s">
+      <c r="N403" s="2" t="s">
+        <v>3072</v>
+      </c>
+      <c r="O403" s="2" t="s">
         <v>3095</v>
       </c>
-      <c r="N403" s="2" t="s">
-        <v>3073</v>
-      </c>
-      <c r="O403" s="2" t="s">
+      <c r="P403" s="2" t="s">
         <v>3096</v>
       </c>
-      <c r="P403" s="2" t="s">
+      <c r="Q403" s="2" t="s">
         <v>3097</v>
-      </c>
-      <c r="Q403" s="2" t="s">
-        <v>3098</v>
       </c>
     </row>
     <row r="404" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="G404" s="2" t="s">
         <v>3099</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>3099</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>2762</v>
-      </c>
-      <c r="G404" s="2" t="s">
+      <c r="H404" s="2" t="s">
         <v>3100</v>
       </c>
-      <c r="H404" s="2" t="s">
+      <c r="I404" s="2" t="s">
         <v>3101</v>
       </c>
-      <c r="I404" s="2" t="s">
+      <c r="J404" s="2" t="s">
         <v>3102</v>
       </c>
-      <c r="J404" s="2" t="s">
+      <c r="K404" s="2" t="s">
         <v>3103</v>
       </c>
-      <c r="K404" s="2" t="s">
+      <c r="L404" s="2" t="s">
         <v>3104</v>
       </c>
-      <c r="L404" s="2" t="s">
+      <c r="M404" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="M404" s="2" t="s">
+      <c r="N404" s="2" t="s">
         <v>3106</v>
       </c>
-      <c r="N404" s="2" t="s">
+      <c r="O404" s="2" t="s">
         <v>3107</v>
       </c>
-      <c r="O404" s="2" t="s">
+      <c r="P404" s="2" t="s">
         <v>3108</v>
       </c>
-      <c r="P404" s="2" t="s">
+      <c r="Q404" s="2" t="s">
         <v>3109</v>
-      </c>
-      <c r="Q404" s="2" t="s">
-        <v>3110</v>
       </c>
     </row>
     <row r="405" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G405" s="2" t="s">
         <v>3111</v>
       </c>
-      <c r="B405" s="2" t="s">
-        <v>3111</v>
-      </c>
-      <c r="G405" s="2" t="s">
+      <c r="H405" s="2" t="s">
         <v>3112</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>3113</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="2" t="s">
         <v>3114</v>
       </c>
-      <c r="J405" s="2" t="s">
+      <c r="K405" s="2" t="s">
         <v>3115</v>
       </c>
-      <c r="K405" s="2" t="s">
+      <c r="L405" s="2" t="s">
         <v>3116</v>
       </c>
-      <c r="L405" s="2" t="s">
+      <c r="M405" s="2" t="s">
         <v>3117</v>
       </c>
-      <c r="M405" s="2" t="s">
+      <c r="N405" s="2" t="s">
         <v>3118</v>
       </c>
-      <c r="N405" s="2" t="s">
+      <c r="O405" s="2" t="s">
         <v>3119</v>
       </c>
-      <c r="O405" s="2" t="s">
+      <c r="P405" s="2" t="s">
         <v>3120</v>
       </c>
-      <c r="P405" s="2" t="s">
+      <c r="Q405" s="2" t="s">
         <v>3121</v>
-      </c>
-      <c r="Q405" s="2" t="s">
-        <v>3122</v>
       </c>
     </row>
     <row r="406" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>3122</v>
+      </c>
+      <c r="G406" s="2" t="s">
         <v>3123</v>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>3123</v>
-      </c>
-      <c r="G406" s="2" t="s">
+      <c r="H406" s="2" t="s">
         <v>3124</v>
       </c>
-      <c r="H406" s="2" t="s">
+      <c r="I406" s="2" t="s">
         <v>3125</v>
       </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="2" t="s">
         <v>3126</v>
       </c>
-      <c r="J406" s="2" t="s">
+      <c r="K406" s="2" t="s">
         <v>3127</v>
       </c>
-      <c r="K406" s="2" t="s">
+      <c r="L406" s="2" t="s">
         <v>3128</v>
       </c>
-      <c r="L406" s="2" t="s">
+      <c r="M406" s="2" t="s">
         <v>3129</v>
       </c>
-      <c r="M406" s="2" t="s">
+      <c r="N406" s="2" t="s">
         <v>3130</v>
       </c>
-      <c r="N406" s="2" t="s">
+      <c r="O406" s="2" t="s">
         <v>3131</v>
       </c>
-      <c r="O406" s="2" t="s">
+      <c r="P406" s="2" t="s">
         <v>3132</v>
       </c>
-      <c r="P406" s="2" t="s">
+      <c r="Q406" s="2" t="s">
         <v>3133</v>
-      </c>
-      <c r="Q406" s="2" t="s">
-        <v>3134</v>
       </c>
     </row>
     <row r="407" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="G407" s="2" t="s">
         <v>3135</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>3135</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>2762</v>
-      </c>
-      <c r="G407" s="2" t="s">
+      <c r="H407" s="2" t="s">
         <v>3136</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="I407" s="2" t="s">
         <v>3137</v>
       </c>
-      <c r="I407" s="2" t="s">
+      <c r="J407" s="2" t="s">
         <v>3138</v>
       </c>
-      <c r="J407" s="2" t="s">
+      <c r="K407" s="2" t="s">
         <v>3139</v>
-      </c>
-      <c r="K407" s="2" t="s">
-        <v>3140</v>
       </c>
       <c r="L407" s="2" t="s">
         <v>1343</v>
       </c>
       <c r="M407" s="2" t="s">
+        <v>3140</v>
+      </c>
+      <c r="N407" s="2" t="s">
         <v>3141</v>
       </c>
-      <c r="N407" s="2" t="s">
+      <c r="O407" s="2" t="s">
         <v>3142</v>
       </c>
-      <c r="O407" s="2" t="s">
+      <c r="P407" s="2" t="s">
         <v>3143</v>
       </c>
-      <c r="P407" s="2" t="s">
+      <c r="Q407" s="2" t="s">
         <v>3144</v>
-      </c>
-      <c r="Q407" s="2" t="s">
-        <v>3145</v>
       </c>
     </row>
     <row r="408" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>3147</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>3148</v>
       </c>
-      <c r="I408" s="2" t="s">
+      <c r="J408" s="2" t="s">
         <v>3149</v>
       </c>
-      <c r="J408" s="2" t="s">
+      <c r="K408" s="2" t="s">
         <v>3150</v>
       </c>
-      <c r="K408" s="2" t="s">
+      <c r="L408" s="2" t="s">
         <v>3151</v>
       </c>
-      <c r="L408" s="2" t="s">
+      <c r="M408" s="2" t="s">
         <v>3152</v>
       </c>
-      <c r="M408" s="2" t="s">
+      <c r="N408" s="2" t="s">
         <v>3153</v>
       </c>
-      <c r="N408" s="2" t="s">
+      <c r="O408" s="2" t="s">
         <v>3154</v>
       </c>
-      <c r="O408" s="2" t="s">
+      <c r="P408" s="2" t="s">
         <v>3155</v>
       </c>
-      <c r="P408" s="2" t="s">
+      <c r="Q408" s="2" t="s">
         <v>3156</v>
-      </c>
-      <c r="Q408" s="2" t="s">
-        <v>3157</v>
       </c>
     </row>
     <row r="409" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>2761</v>
+      </c>
+      <c r="G409" s="2" t="s">
         <v>3158</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>3158</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>2762</v>
-      </c>
-      <c r="G409" s="2" t="s">
+      <c r="H409" s="2" t="s">
         <v>3159</v>
       </c>
-      <c r="H409" s="2" t="s">
+      <c r="I409" s="2" t="s">
         <v>3160</v>
       </c>
-      <c r="I409" s="2" t="s">
+      <c r="J409" s="2" t="s">
         <v>3161</v>
       </c>
-      <c r="J409" s="2" t="s">
+      <c r="K409" s="2" t="s">
         <v>3162</v>
       </c>
-      <c r="K409" s="2" t="s">
+      <c r="L409" s="2" t="s">
         <v>3163</v>
       </c>
-      <c r="L409" s="2" t="s">
+      <c r="M409" s="2" t="s">
         <v>3164</v>
       </c>
-      <c r="M409" s="2" t="s">
+      <c r="N409" s="2" t="s">
         <v>3165</v>
       </c>
-      <c r="N409" s="2" t="s">
+      <c r="O409" s="2" t="s">
         <v>3166</v>
       </c>
-      <c r="O409" s="2" t="s">
+      <c r="P409" s="2" t="s">
         <v>3167</v>
       </c>
-      <c r="P409" s="2" t="s">
+      <c r="Q409" s="2" t="s">
         <v>3168</v>
-      </c>
-      <c r="Q409" s="2" t="s">
-        <v>3169</v>
       </c>
     </row>
     <row r="410" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G410" s="2" t="s">
         <v>3170</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>3170</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G410" s="2" t="s">
+      <c r="H410" s="2" t="s">
         <v>3171</v>
       </c>
-      <c r="H410" s="2" t="s">
+      <c r="I410" s="2" t="s">
         <v>3172</v>
       </c>
-      <c r="I410" s="2" t="s">
+      <c r="J410" s="2" t="s">
         <v>3173</v>
       </c>
-      <c r="J410" s="2" t="s">
+      <c r="K410" s="2" t="s">
         <v>3174</v>
       </c>
-      <c r="K410" s="2" t="s">
+      <c r="L410" s="2" t="s">
         <v>3175</v>
       </c>
-      <c r="L410" s="2" t="s">
+      <c r="M410" s="2" t="s">
         <v>3176</v>
       </c>
-      <c r="M410" s="2" t="s">
+      <c r="N410" s="2" t="s">
         <v>3177</v>
       </c>
-      <c r="N410" s="2" t="s">
+      <c r="O410" s="2" t="s">
         <v>3178</v>
       </c>
-      <c r="O410" s="2" t="s">
+      <c r="P410" s="2" t="s">
         <v>3179</v>
       </c>
-      <c r="P410" s="2" t="s">
+      <c r="Q410" s="2" t="s">
         <v>3180</v>
-      </c>
-      <c r="Q410" s="2" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="411" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G411" s="2" t="s">
         <v>3182</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G411" s="2" t="s">
+      <c r="H411" s="2" t="s">
         <v>3183</v>
       </c>
-      <c r="H411" s="2" t="s">
+      <c r="I411" s="2" t="s">
         <v>3184</v>
       </c>
-      <c r="I411" s="2" t="s">
+      <c r="J411" s="2" t="s">
         <v>3185</v>
       </c>
-      <c r="J411" s="2" t="s">
+      <c r="K411" s="2" t="s">
         <v>3186</v>
       </c>
-      <c r="K411" s="2" t="s">
+      <c r="L411" s="2" t="s">
         <v>3187</v>
       </c>
-      <c r="L411" s="2" t="s">
+      <c r="M411" s="2" t="s">
         <v>3188</v>
       </c>
-      <c r="M411" s="2" t="s">
+      <c r="N411" s="2" t="s">
         <v>3189</v>
       </c>
-      <c r="N411" s="2" t="s">
+      <c r="O411" s="2" t="s">
         <v>3190</v>
       </c>
-      <c r="O411" s="2" t="s">
+      <c r="P411" s="2" t="s">
         <v>3191</v>
       </c>
-      <c r="P411" s="2" t="s">
+      <c r="Q411" s="2" t="s">
         <v>3192</v>
-      </c>
-      <c r="Q411" s="2" t="s">
-        <v>3193</v>
       </c>
     </row>
     <row r="412" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G412" s="2" t="s">
         <v>3194</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="H412" s="2" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="J412" s="2" t="s">
+        <v>3197</v>
+      </c>
+      <c r="K412" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="L412" s="2" t="s">
+        <v>3199</v>
+      </c>
+      <c r="M412" s="2" t="s">
         <v>3194</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>3195</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>3196</v>
-      </c>
-      <c r="I412" s="2" t="s">
-        <v>3197</v>
-      </c>
-      <c r="J412" s="2" t="s">
-        <v>3198</v>
-      </c>
-      <c r="K412" s="2" t="s">
-        <v>3199</v>
-      </c>
-      <c r="L412" s="2" t="s">
+      <c r="N412" s="2" t="s">
         <v>3200</v>
       </c>
-      <c r="M412" s="2" t="s">
-        <v>3195</v>
-      </c>
-      <c r="N412" s="2" t="s">
+      <c r="O412" s="2" t="s">
         <v>3201</v>
       </c>
-      <c r="O412" s="2" t="s">
+      <c r="P412" s="2" t="s">
         <v>3202</v>
       </c>
-      <c r="P412" s="2" t="s">
+      <c r="Q412" s="2" t="s">
         <v>3203</v>
-      </c>
-      <c r="Q412" s="2" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="413" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G413" s="2" t="s">
         <v>3205</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>3205</v>
-      </c>
-      <c r="G413" s="2" t="s">
+      <c r="H413" s="2" t="s">
         <v>3206</v>
       </c>
-      <c r="H413" s="2" t="s">
+      <c r="I413" s="2" t="s">
         <v>3207</v>
       </c>
-      <c r="I413" s="2" t="s">
+      <c r="J413" s="2" t="s">
         <v>3208</v>
       </c>
-      <c r="J413" s="2" t="s">
+      <c r="K413" s="2" t="s">
         <v>3209</v>
       </c>
-      <c r="K413" s="2" t="s">
+      <c r="L413" s="2" t="s">
         <v>3210</v>
       </c>
-      <c r="L413" s="2" t="s">
+      <c r="M413" s="2" t="s">
         <v>3211</v>
       </c>
-      <c r="M413" s="2" t="s">
+      <c r="N413" s="2" t="s">
         <v>3212</v>
       </c>
-      <c r="N413" s="2" t="s">
+      <c r="O413" s="2" t="s">
         <v>3213</v>
       </c>
-      <c r="O413" s="2" t="s">
+      <c r="P413" s="2" t="s">
         <v>3214</v>
       </c>
-      <c r="P413" s="2" t="s">
+      <c r="Q413" s="2" t="s">
         <v>3215</v>
-      </c>
-      <c r="Q413" s="2" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="414" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="H414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="J414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="K414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="L414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="M414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="O414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="P414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="Q414" s="2" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="415" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>726</v>
       </c>
       <c r="G415" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H415" s="2" t="s">
         <v>3220</v>
       </c>
-      <c r="H415" s="2" t="s">
+      <c r="I415" s="2" t="s">
         <v>3221</v>
       </c>
-      <c r="I415" s="2" t="s">
+      <c r="J415" s="2" t="s">
         <v>3222</v>
       </c>
-      <c r="J415" s="2" t="s">
+      <c r="K415" s="2" t="s">
         <v>3223</v>
       </c>
-      <c r="K415" s="2" t="s">
+      <c r="L415" s="2" t="s">
         <v>3224</v>
       </c>
-      <c r="L415" s="2" t="s">
+      <c r="M415" s="2" t="s">
         <v>3225</v>
       </c>
-      <c r="M415" s="2" t="s">
+      <c r="N415" s="2" t="s">
         <v>3226</v>
       </c>
-      <c r="N415" s="2" t="s">
+      <c r="O415" s="2" t="s">
         <v>3227</v>
       </c>
-      <c r="O415" s="2" t="s">
+      <c r="P415" s="2" t="s">
         <v>3228</v>
       </c>
-      <c r="P415" s="2" t="s">
+      <c r="Q415" s="2" t="s">
         <v>3229</v>
-      </c>
-      <c r="Q415" s="2" t="s">
-        <v>3230</v>
       </c>
     </row>
     <row r="416" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>3231</v>
+      </c>
+      <c r="H416" s="2" t="s">
         <v>3232</v>
       </c>
-      <c r="H416" s="2" t="s">
+      <c r="I416" s="2" t="s">
         <v>3233</v>
       </c>
-      <c r="I416" s="2" t="s">
+      <c r="J416" s="2" t="s">
         <v>3234</v>
       </c>
-      <c r="J416" s="2" t="s">
+      <c r="K416" s="2" t="s">
         <v>3235</v>
       </c>
-      <c r="K416" s="2" t="s">
+      <c r="L416" s="2" t="s">
         <v>3236</v>
       </c>
-      <c r="L416" s="2" t="s">
+      <c r="M416" s="2" t="s">
         <v>3237</v>
       </c>
-      <c r="M416" s="2" t="s">
+      <c r="N416" s="2" t="s">
         <v>3238</v>
       </c>
-      <c r="N416" s="2" t="s">
+      <c r="O416" s="2" t="s">
         <v>3239</v>
       </c>
-      <c r="O416" s="2" t="s">
+      <c r="P416" s="2" t="s">
         <v>3240</v>
       </c>
-      <c r="P416" s="2" t="s">
+      <c r="Q416" s="2" t="s">
         <v>3241</v>
-      </c>
-      <c r="Q416" s="2" t="s">
-        <v>3242</v>
       </c>
     </row>
     <row r="417" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>3244</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="I417" s="2" t="s">
         <v>3245</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="J417" s="2" t="s">
         <v>3246</v>
       </c>
-      <c r="J417" s="2" t="s">
+      <c r="K417" s="2" t="s">
         <v>3247</v>
       </c>
-      <c r="K417" s="2" t="s">
+      <c r="L417" s="2" t="s">
         <v>3248</v>
       </c>
-      <c r="L417" s="2" t="s">
+      <c r="M417" s="2" t="s">
         <v>3249</v>
       </c>
-      <c r="M417" s="2" t="s">
+      <c r="N417" s="2" t="s">
         <v>3250</v>
       </c>
-      <c r="N417" s="2" t="s">
+      <c r="O417" s="2" t="s">
         <v>3251</v>
       </c>
-      <c r="O417" s="2" t="s">
+      <c r="P417" s="2" t="s">
         <v>3252</v>
       </c>
-      <c r="P417" s="2" t="s">
+      <c r="Q417" s="2" t="s">
         <v>3253</v>
-      </c>
-      <c r="Q417" s="2" t="s">
-        <v>3254</v>
       </c>
     </row>
     <row r="418" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>1337</v>
       </c>
       <c r="G418" s="2" t="s">
+        <v>3255</v>
+      </c>
+      <c r="H418" s="2" t="s">
         <v>3256</v>
       </c>
-      <c r="H418" s="2" t="s">
+      <c r="I418" s="2" t="s">
         <v>3257</v>
       </c>
-      <c r="I418" s="2" t="s">
+      <c r="J418" s="2" t="s">
         <v>3258</v>
       </c>
-      <c r="J418" s="2" t="s">
+      <c r="K418" s="2" t="s">
         <v>3259</v>
       </c>
-      <c r="K418" s="2" t="s">
+      <c r="L418" s="2" t="s">
         <v>3260</v>
       </c>
-      <c r="L418" s="2" t="s">
+      <c r="M418" s="2" t="s">
         <v>3261</v>
       </c>
-      <c r="M418" s="2" t="s">
+      <c r="N418" s="2" t="s">
         <v>3262</v>
       </c>
-      <c r="N418" s="2" t="s">
+      <c r="O418" s="2" t="s">
         <v>3263</v>
       </c>
-      <c r="O418" s="2" t="s">
+      <c r="P418" s="2" t="s">
         <v>3264</v>
       </c>
-      <c r="P418" s="2" t="s">
+      <c r="Q418" s="2" t="s">
         <v>3265</v>
-      </c>
-      <c r="Q418" s="2" t="s">
-        <v>3266</v>
       </c>
     </row>
     <row r="419" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>972</v>
       </c>
       <c r="G419" s="2" t="s">
+        <v>3267</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>3268</v>
       </c>
-      <c r="H419" s="2" t="s">
+      <c r="I419" s="2" t="s">
         <v>3269</v>
       </c>
-      <c r="I419" s="2" t="s">
+      <c r="J419" s="2" t="s">
         <v>3270</v>
       </c>
-      <c r="J419" s="2" t="s">
+      <c r="K419" s="2" t="s">
         <v>3271</v>
       </c>
-      <c r="K419" s="2" t="s">
+      <c r="L419" s="2" t="s">
         <v>3272</v>
       </c>
-      <c r="L419" s="2" t="s">
+      <c r="M419" s="2" t="s">
         <v>3273</v>
       </c>
-      <c r="M419" s="2" t="s">
+      <c r="N419" s="2" t="s">
         <v>3274</v>
       </c>
-      <c r="N419" s="2" t="s">
+      <c r="O419" s="2" t="s">
         <v>3275</v>
       </c>
-      <c r="O419" s="2" t="s">
+      <c r="P419" s="2" t="s">
         <v>3276</v>
       </c>
-      <c r="P419" s="2" t="s">
+      <c r="Q419" s="2" t="s">
         <v>3277</v>
-      </c>
-      <c r="Q419" s="2" t="s">
-        <v>3278</v>
       </c>
     </row>
     <row r="420" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>3279</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>3280</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="I420" s="2" t="s">
         <v>3281</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="J420" s="2" t="s">
         <v>3282</v>
       </c>
-      <c r="J420" s="2" t="s">
+      <c r="K420" s="2" t="s">
         <v>3283</v>
       </c>
-      <c r="K420" s="2" t="s">
+      <c r="L420" s="2" t="s">
         <v>3284</v>
       </c>
-      <c r="L420" s="2" t="s">
+      <c r="M420" s="2" t="s">
         <v>3285</v>
       </c>
-      <c r="M420" s="2" t="s">
+      <c r="N420" s="2" t="s">
         <v>3286</v>
       </c>
-      <c r="N420" s="2" t="s">
+      <c r="O420" s="2" t="s">
         <v>3287</v>
       </c>
-      <c r="O420" s="2" t="s">
+      <c r="P420" s="2" t="s">
         <v>3288</v>
       </c>
-      <c r="P420" s="2" t="s">
+      <c r="Q420" s="2" t="s">
         <v>3289</v>
-      </c>
-      <c r="Q420" s="2" t="s">
-        <v>3290</v>
       </c>
     </row>
     <row r="421" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>3291</v>
+      </c>
+      <c r="H421" s="2" t="s">
         <v>3292</v>
       </c>
-      <c r="H421" s="2" t="s">
+      <c r="I421" s="2" t="s">
         <v>3293</v>
       </c>
-      <c r="I421" s="2" t="s">
+      <c r="J421" s="2" t="s">
         <v>3294</v>
       </c>
-      <c r="J421" s="2" t="s">
+      <c r="K421" s="2" t="s">
         <v>3295</v>
       </c>
-      <c r="K421" s="2" t="s">
+      <c r="L421" s="2" t="s">
         <v>3296</v>
       </c>
-      <c r="L421" s="2" t="s">
+      <c r="M421" s="2" t="s">
         <v>3297</v>
       </c>
-      <c r="M421" s="2" t="s">
+      <c r="N421" s="2" t="s">
         <v>3298</v>
       </c>
-      <c r="N421" s="2" t="s">
+      <c r="O421" s="2" t="s">
         <v>3299</v>
       </c>
-      <c r="O421" s="2" t="s">
+      <c r="P421" s="2" t="s">
         <v>3300</v>
       </c>
-      <c r="P421" s="2" t="s">
+      <c r="Q421" s="2" t="s">
         <v>3301</v>
-      </c>
-      <c r="Q421" s="2" t="s">
-        <v>3302</v>
       </c>
     </row>
     <row r="422" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>959</v>
       </c>
       <c r="G422" s="2" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H422" s="2" t="s">
         <v>3304</v>
       </c>
-      <c r="H422" s="2" t="s">
+      <c r="I422" s="2" t="s">
         <v>3305</v>
       </c>
-      <c r="I422" s="2" t="s">
+      <c r="J422" s="2" t="s">
         <v>3306</v>
       </c>
-      <c r="J422" s="2" t="s">
+      <c r="K422" s="2" t="s">
         <v>3307</v>
       </c>
-      <c r="K422" s="2" t="s">
+      <c r="L422" s="2" t="s">
         <v>3308</v>
       </c>
-      <c r="L422" s="2" t="s">
+      <c r="M422" s="2" t="s">
         <v>3309</v>
       </c>
-      <c r="M422" s="2" t="s">
+      <c r="N422" s="2" t="s">
         <v>3310</v>
       </c>
-      <c r="N422" s="2" t="s">
+      <c r="O422" s="2" t="s">
         <v>3311</v>
       </c>
-      <c r="O422" s="2" t="s">
+      <c r="P422" s="2" t="s">
         <v>3312</v>
       </c>
-      <c r="P422" s="2" t="s">
+      <c r="Q422" s="2" t="s">
         <v>3313</v>
-      </c>
-      <c r="Q422" s="2" t="s">
-        <v>3314</v>
       </c>
     </row>
     <row r="423" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>647</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>3315</v>
+      </c>
+      <c r="H423" s="2" t="s">
         <v>3316</v>
       </c>
-      <c r="H423" s="2" t="s">
+      <c r="I423" s="2" t="s">
         <v>3317</v>
       </c>
-      <c r="I423" s="2" t="s">
+      <c r="J423" s="2" t="s">
         <v>3318</v>
       </c>
-      <c r="J423" s="2" t="s">
+      <c r="K423" s="2" t="s">
         <v>3319</v>
       </c>
-      <c r="K423" s="2" t="s">
+      <c r="L423" s="2" t="s">
         <v>3320</v>
       </c>
-      <c r="L423" s="2" t="s">
+      <c r="M423" s="2" t="s">
         <v>3321</v>
       </c>
-      <c r="M423" s="2" t="s">
+      <c r="N423" s="2" t="s">
         <v>3322</v>
       </c>
-      <c r="N423" s="2" t="s">
+      <c r="O423" s="2" t="s">
         <v>3323</v>
       </c>
-      <c r="O423" s="2" t="s">
+      <c r="P423" s="2" t="s">
         <v>3324</v>
       </c>
-      <c r="P423" s="2" t="s">
+      <c r="Q423" s="2" t="s">
         <v>3325</v>
-      </c>
-      <c r="Q423" s="2" t="s">
-        <v>3326</v>
       </c>
     </row>
     <row r="424" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G424" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>3327</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G424" s="2" t="s">
+      <c r="H424" s="2" t="s">
         <v>3328</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>3329</v>
       </c>
       <c r="I424" s="2" t="s">
         <v>852</v>
@@ -30150,42 +30150,42 @@
         <v>853</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>3329</v>
+      </c>
+      <c r="L424" s="2" t="s">
         <v>3330</v>
       </c>
-      <c r="L424" s="2" t="s">
+      <c r="M424" s="2" t="s">
         <v>3331</v>
-      </c>
-      <c r="M424" s="2" t="s">
-        <v>3332</v>
       </c>
       <c r="N424" s="2" t="s">
         <v>857</v>
       </c>
       <c r="O424" s="2" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P424" s="2" t="s">
         <v>3333</v>
       </c>
-      <c r="P424" s="2" t="s">
+      <c r="Q424" s="2" t="s">
         <v>3334</v>
-      </c>
-      <c r="Q424" s="2" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="425" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G425" s="2" t="s">
         <v>3336</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>3336</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G425" s="2" t="s">
+      <c r="H425" s="2" t="s">
         <v>3337</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>3338</v>
       </c>
       <c r="I425" s="2" t="s">
         <v>949</v>
@@ -30194,203 +30194,203 @@
         <v>950</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>3338</v>
+      </c>
+      <c r="L425" s="2" t="s">
         <v>3339</v>
       </c>
-      <c r="L425" s="2" t="s">
-        <v>3340</v>
-      </c>
       <c r="M425" s="2" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="N425" s="2" t="s">
         <v>954</v>
       </c>
       <c r="O425" s="2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="P425" s="2" t="s">
         <v>3341</v>
       </c>
-      <c r="P425" s="2" t="s">
+      <c r="Q425" s="2" t="s">
         <v>3342</v>
-      </c>
-      <c r="Q425" s="2" t="s">
-        <v>3343</v>
       </c>
     </row>
     <row r="426" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G426" s="2" t="s">
         <v>3344</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>3344</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G426" s="2" t="s">
+      <c r="H426" s="2" t="s">
         <v>3345</v>
-      </c>
-      <c r="H426" s="2" t="s">
-        <v>3346</v>
       </c>
       <c r="I426" s="2" t="s">
         <v>1543</v>
       </c>
       <c r="J426" s="2" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="K426" s="2" t="s">
         <v>1545</v>
       </c>
       <c r="L426" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="M426" s="2" t="s">
         <v>3348</v>
       </c>
-      <c r="M426" s="2" t="s">
+      <c r="N426" s="2" t="s">
         <v>3349</v>
       </c>
-      <c r="N426" s="2" t="s">
+      <c r="O426" s="2" t="s">
         <v>3350</v>
       </c>
-      <c r="O426" s="2" t="s">
+      <c r="P426" s="2" t="s">
         <v>3351</v>
       </c>
-      <c r="P426" s="2" t="s">
+      <c r="Q426" s="2" t="s">
         <v>3352</v>
-      </c>
-      <c r="Q426" s="2" t="s">
-        <v>3353</v>
       </c>
     </row>
     <row r="427" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>3354</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>3354</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>2775</v>
-      </c>
-      <c r="G427" s="2" t="s">
-        <v>3345</v>
-      </c>
-      <c r="H427" s="2" t="s">
+      <c r="I427" s="2" t="s">
         <v>3355</v>
       </c>
-      <c r="I427" s="2" t="s">
+      <c r="J427" s="2" t="s">
         <v>3356</v>
       </c>
-      <c r="J427" s="2" t="s">
+      <c r="K427" s="2" t="s">
         <v>3357</v>
       </c>
-      <c r="K427" s="2" t="s">
+      <c r="L427" s="2" t="s">
         <v>3358</v>
       </c>
-      <c r="L427" s="2" t="s">
+      <c r="M427" s="2" t="s">
         <v>3359</v>
       </c>
-      <c r="M427" s="2" t="s">
+      <c r="N427" s="2" t="s">
         <v>3360</v>
       </c>
-      <c r="N427" s="2" t="s">
+      <c r="O427" s="2" t="s">
         <v>3361</v>
       </c>
-      <c r="O427" s="2" t="s">
+      <c r="P427" s="2" t="s">
         <v>3362</v>
       </c>
-      <c r="P427" s="2" t="s">
+      <c r="Q427" s="2" t="s">
         <v>3363</v>
-      </c>
-      <c r="Q427" s="2" t="s">
-        <v>3364</v>
       </c>
     </row>
     <row r="428" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>3364</v>
+      </c>
+      <c r="G428" s="2" t="s">
         <v>3365</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>3365</v>
-      </c>
-      <c r="G428" s="2" t="s">
+      <c r="H428" s="2" t="s">
         <v>3366</v>
       </c>
-      <c r="H428" s="2" t="s">
+      <c r="I428" s="2" t="s">
         <v>3367</v>
       </c>
-      <c r="I428" s="2" t="s">
+      <c r="J428" s="2" t="s">
         <v>3368</v>
       </c>
-      <c r="J428" s="2" t="s">
+      <c r="K428" s="2" t="s">
         <v>3369</v>
       </c>
-      <c r="K428" s="2" t="s">
+      <c r="L428" s="2" t="s">
         <v>3370</v>
       </c>
-      <c r="L428" s="2" t="s">
+      <c r="M428" s="2" t="s">
         <v>3371</v>
       </c>
-      <c r="M428" s="2" t="s">
+      <c r="N428" s="2" t="s">
         <v>3372</v>
       </c>
-      <c r="N428" s="2" t="s">
+      <c r="O428" s="2" t="s">
         <v>3373</v>
       </c>
-      <c r="O428" s="2" t="s">
+      <c r="P428" s="2" t="s">
         <v>3374</v>
       </c>
-      <c r="P428" s="2" t="s">
+      <c r="Q428" s="2" t="s">
         <v>3375</v>
-      </c>
-      <c r="Q428" s="2" t="s">
-        <v>3376</v>
       </c>
     </row>
     <row r="429" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>3377</v>
+      </c>
+      <c r="H429" s="2" t="s">
         <v>3378</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="I429" s="2" t="s">
         <v>3379</v>
       </c>
-      <c r="I429" s="2" t="s">
+      <c r="J429" s="2" t="s">
         <v>3380</v>
       </c>
-      <c r="J429" s="2" t="s">
+      <c r="K429" s="2" t="s">
         <v>3381</v>
       </c>
-      <c r="K429" s="2" t="s">
+      <c r="L429" s="2" t="s">
         <v>3382</v>
       </c>
-      <c r="L429" s="2" t="s">
+      <c r="M429" s="2" t="s">
         <v>3383</v>
       </c>
-      <c r="M429" s="2" t="s">
+      <c r="N429" s="2" t="s">
         <v>3384</v>
       </c>
-      <c r="N429" s="2" t="s">
+      <c r="O429" s="2" t="s">
         <v>3385</v>
       </c>
-      <c r="O429" s="2" t="s">
+      <c r="P429" s="2" t="s">
         <v>3386</v>
       </c>
-      <c r="P429" s="2" t="s">
+      <c r="Q429" s="2" t="s">
         <v>3387</v>
-      </c>
-      <c r="Q429" s="2" t="s">
-        <v>3388</v>
       </c>
     </row>
     <row r="430" spans="1:17" ht="96" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>1894</v>
@@ -30399,2327 +30399,2327 @@
         <v>849</v>
       </c>
       <c r="E430" s="2" t="s">
+        <v>3389</v>
+      </c>
+      <c r="G430" s="2" t="s">
         <v>3390</v>
       </c>
-      <c r="G430" s="2" t="s">
+      <c r="H430" s="2" t="s">
         <v>3391</v>
       </c>
-      <c r="H430" s="2" t="s">
+      <c r="I430" s="2" t="s">
         <v>3392</v>
       </c>
-      <c r="I430" s="2" t="s">
+      <c r="J430" s="2" t="s">
         <v>3393</v>
       </c>
-      <c r="J430" s="2" t="s">
+      <c r="K430" s="2" t="s">
         <v>3394</v>
       </c>
-      <c r="K430" s="2" t="s">
+      <c r="L430" s="2" t="s">
         <v>3395</v>
       </c>
-      <c r="L430" s="2" t="s">
+      <c r="M430" s="2" t="s">
         <v>3396</v>
       </c>
-      <c r="M430" s="2" t="s">
+      <c r="N430" s="2" t="s">
         <v>3397</v>
       </c>
-      <c r="N430" s="2" t="s">
+      <c r="O430" s="2" t="s">
         <v>3398</v>
       </c>
-      <c r="O430" s="2" t="s">
+      <c r="P430" s="2" t="s">
         <v>3399</v>
       </c>
-      <c r="P430" s="2" t="s">
+      <c r="Q430" s="2" t="s">
         <v>3400</v>
-      </c>
-      <c r="Q430" s="2" t="s">
-        <v>3401</v>
       </c>
     </row>
     <row r="431" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>849</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="J431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="K431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="L431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="M431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="O431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="P431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="Q431" s="2" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="432" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="G432" s="2" t="s">
         <v>3404</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>3404</v>
-      </c>
-      <c r="G432" s="2" t="s">
+      <c r="H432" s="2" t="s">
         <v>3405</v>
       </c>
-      <c r="H432" s="2" t="s">
+      <c r="I432" s="2" t="s">
         <v>3406</v>
       </c>
-      <c r="I432" s="2" t="s">
+      <c r="J432" s="2" t="s">
         <v>3407</v>
       </c>
-      <c r="J432" s="2" t="s">
+      <c r="K432" s="2" t="s">
         <v>3408</v>
       </c>
-      <c r="K432" s="2" t="s">
+      <c r="L432" s="2" t="s">
         <v>3409</v>
       </c>
-      <c r="L432" s="2" t="s">
+      <c r="M432" s="2" t="s">
         <v>3410</v>
       </c>
-      <c r="M432" s="2" t="s">
+      <c r="N432" s="2" t="s">
         <v>3411</v>
       </c>
-      <c r="N432" s="2" t="s">
+      <c r="O432" s="2" t="s">
         <v>3412</v>
       </c>
-      <c r="O432" s="2" t="s">
+      <c r="P432" s="2" t="s">
         <v>3413</v>
       </c>
-      <c r="P432" s="2" t="s">
+      <c r="Q432" s="2" t="s">
         <v>3414</v>
-      </c>
-      <c r="Q432" s="2" t="s">
-        <v>3415</v>
       </c>
     </row>
     <row r="433" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>3415</v>
+      </c>
+      <c r="G433" s="2" t="s">
         <v>3416</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>3416</v>
-      </c>
-      <c r="G433" s="2" t="s">
+      <c r="H433" s="2" t="s">
         <v>3417</v>
       </c>
-      <c r="H433" s="2" t="s">
+      <c r="I433" s="2" t="s">
         <v>3418</v>
       </c>
-      <c r="I433" s="2" t="s">
+      <c r="J433" s="2" t="s">
         <v>3419</v>
       </c>
-      <c r="J433" s="2" t="s">
+      <c r="K433" s="2" t="s">
         <v>3420</v>
       </c>
-      <c r="K433" s="2" t="s">
+      <c r="L433" s="2" t="s">
         <v>3421</v>
       </c>
-      <c r="L433" s="2" t="s">
+      <c r="M433" s="2" t="s">
         <v>3422</v>
       </c>
-      <c r="M433" s="2" t="s">
+      <c r="N433" s="2" t="s">
         <v>3423</v>
       </c>
-      <c r="N433" s="2" t="s">
+      <c r="O433" s="2" t="s">
         <v>3424</v>
       </c>
-      <c r="O433" s="2" t="s">
+      <c r="P433" s="2" t="s">
         <v>3425</v>
       </c>
-      <c r="P433" s="2" t="s">
+      <c r="Q433" s="2" t="s">
         <v>3426</v>
-      </c>
-      <c r="Q433" s="2" t="s">
-        <v>3427</v>
       </c>
     </row>
     <row r="434" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>3428</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="E434" s="2" t="s">
         <v>3429</v>
       </c>
-      <c r="E434" s="2" t="s">
+      <c r="F434" s="2" t="s">
         <v>3430</v>
       </c>
-      <c r="F434" s="2" t="s">
+      <c r="G434" s="2" t="s">
         <v>3431</v>
       </c>
-      <c r="G434" s="2" t="s">
+      <c r="H434" s="2" t="s">
         <v>3432</v>
       </c>
-      <c r="H434" s="2" t="s">
+      <c r="I434" s="2" t="s">
         <v>3433</v>
       </c>
-      <c r="I434" s="2" t="s">
+      <c r="J434" s="2" t="s">
         <v>3434</v>
       </c>
-      <c r="J434" s="2" t="s">
+      <c r="K434" s="2" t="s">
         <v>3435</v>
       </c>
-      <c r="K434" s="2" t="s">
+      <c r="L434" s="2" t="s">
         <v>3436</v>
       </c>
-      <c r="L434" s="2" t="s">
+      <c r="M434" s="2" t="s">
         <v>3437</v>
       </c>
-      <c r="M434" s="2" t="s">
+      <c r="N434" s="2" t="s">
         <v>3438</v>
       </c>
-      <c r="N434" s="2" t="s">
+      <c r="O434" s="2" t="s">
         <v>3439</v>
       </c>
-      <c r="O434" s="2" t="s">
+      <c r="P434" s="2" t="s">
         <v>3440</v>
       </c>
-      <c r="P434" s="2" t="s">
+      <c r="Q434" s="2" t="s">
         <v>3441</v>
-      </c>
-      <c r="Q434" s="2" t="s">
-        <v>3442</v>
       </c>
     </row>
     <row r="435" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>3443</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="E435" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G435" s="2" t="s">
         <v>3444</v>
       </c>
-      <c r="E435" s="2" t="s">
-        <v>3430</v>
-      </c>
-      <c r="F435" s="2" t="s">
-        <v>3431</v>
-      </c>
-      <c r="G435" s="2" t="s">
+      <c r="H435" s="2" t="s">
         <v>3445</v>
       </c>
-      <c r="H435" s="2" t="s">
+      <c r="I435" s="2" t="s">
         <v>3446</v>
       </c>
-      <c r="I435" s="2" t="s">
+      <c r="J435" s="2" t="s">
         <v>3447</v>
       </c>
-      <c r="J435" s="2" t="s">
+      <c r="K435" s="2" t="s">
         <v>3448</v>
       </c>
-      <c r="K435" s="2" t="s">
+      <c r="L435" s="2" t="s">
         <v>3449</v>
       </c>
-      <c r="L435" s="2" t="s">
+      <c r="M435" s="2" t="s">
         <v>3450</v>
       </c>
-      <c r="M435" s="2" t="s">
+      <c r="N435" s="2" t="s">
         <v>3451</v>
       </c>
-      <c r="N435" s="2" t="s">
+      <c r="O435" s="2" t="s">
         <v>3452</v>
       </c>
-      <c r="O435" s="2" t="s">
+      <c r="P435" s="2" t="s">
         <v>3453</v>
       </c>
-      <c r="P435" s="2" t="s">
+      <c r="Q435" s="2" t="s">
         <v>3454</v>
-      </c>
-      <c r="Q435" s="2" t="s">
-        <v>3455</v>
       </c>
     </row>
     <row r="436" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>1409</v>
       </c>
       <c r="G436" s="2" t="s">
+        <v>3456</v>
+      </c>
+      <c r="H436" s="2" t="s">
         <v>3457</v>
       </c>
-      <c r="H436" s="2" t="s">
+      <c r="I436" s="2" t="s">
         <v>3458</v>
       </c>
-      <c r="I436" s="2" t="s">
+      <c r="J436" s="2" t="s">
         <v>3459</v>
       </c>
-      <c r="J436" s="2" t="s">
+      <c r="K436" s="2" t="s">
         <v>3460</v>
       </c>
-      <c r="K436" s="2" t="s">
+      <c r="L436" s="2" t="s">
         <v>3461</v>
       </c>
-      <c r="L436" s="2" t="s">
+      <c r="M436" s="2" t="s">
         <v>3462</v>
       </c>
-      <c r="M436" s="2" t="s">
+      <c r="N436" s="2" t="s">
         <v>3463</v>
       </c>
-      <c r="N436" s="2" t="s">
+      <c r="O436" s="2" t="s">
         <v>3464</v>
       </c>
-      <c r="O436" s="2" t="s">
+      <c r="P436" s="2" t="s">
         <v>3465</v>
       </c>
-      <c r="P436" s="2" t="s">
+      <c r="Q436" s="2" t="s">
         <v>3466</v>
-      </c>
-      <c r="Q436" s="2" t="s">
-        <v>3467</v>
       </c>
     </row>
     <row r="437" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G437" s="2" t="s">
         <v>3468</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>3468</v>
-      </c>
-      <c r="G437" s="2" t="s">
+      <c r="H437" s="2" t="s">
         <v>3469</v>
       </c>
-      <c r="H437" s="2" t="s">
+      <c r="I437" s="2" t="s">
         <v>3470</v>
       </c>
-      <c r="I437" s="2" t="s">
+      <c r="J437" s="2" t="s">
         <v>3471</v>
       </c>
-      <c r="J437" s="2" t="s">
+      <c r="K437" s="2" t="s">
         <v>3472</v>
       </c>
-      <c r="K437" s="2" t="s">
+      <c r="L437" s="2" t="s">
         <v>3473</v>
       </c>
-      <c r="L437" s="2" t="s">
+      <c r="M437" s="2" t="s">
         <v>3474</v>
       </c>
-      <c r="M437" s="2" t="s">
+      <c r="N437" s="2" t="s">
         <v>3475</v>
       </c>
-      <c r="N437" s="2" t="s">
+      <c r="O437" s="2" t="s">
         <v>3476</v>
       </c>
-      <c r="O437" s="2" t="s">
+      <c r="P437" s="2" t="s">
         <v>3477</v>
       </c>
-      <c r="P437" s="2" t="s">
+      <c r="Q437" s="2" t="s">
         <v>3478</v>
-      </c>
-      <c r="Q437" s="2" t="s">
-        <v>3479</v>
       </c>
     </row>
     <row r="438" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>3480</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="E438" s="2" t="s">
         <v>3481</v>
       </c>
-      <c r="E438" s="2" t="s">
+      <c r="F438" s="2" t="s">
         <v>3482</v>
       </c>
-      <c r="F438" s="2" t="s">
+      <c r="G438" s="2" t="s">
         <v>3483</v>
       </c>
-      <c r="G438" s="2" t="s">
+      <c r="H438" s="2" t="s">
         <v>3484</v>
       </c>
-      <c r="H438" s="2" t="s">
+      <c r="I438" s="2" t="s">
         <v>3485</v>
       </c>
-      <c r="I438" s="2" t="s">
+      <c r="J438" s="2" t="s">
         <v>3486</v>
       </c>
-      <c r="J438" s="2" t="s">
+      <c r="K438" s="2" t="s">
         <v>3487</v>
       </c>
-      <c r="K438" s="2" t="s">
+      <c r="L438" s="2" t="s">
         <v>3488</v>
       </c>
-      <c r="L438" s="2" t="s">
+      <c r="M438" s="2" t="s">
         <v>3489</v>
       </c>
-      <c r="M438" s="2" t="s">
+      <c r="N438" s="2" t="s">
         <v>3490</v>
       </c>
-      <c r="N438" s="2" t="s">
+      <c r="O438" s="2" t="s">
         <v>3491</v>
       </c>
-      <c r="O438" s="2" t="s">
+      <c r="P438" s="2" t="s">
         <v>3492</v>
       </c>
-      <c r="P438" s="2" t="s">
+      <c r="Q438" s="2" t="s">
         <v>3493</v>
-      </c>
-      <c r="Q438" s="2" t="s">
-        <v>3494</v>
       </c>
     </row>
     <row r="439" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>3495</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="E439" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G439" s="2" t="s">
         <v>3496</v>
       </c>
-      <c r="E439" s="2" t="s">
-        <v>3482</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>3483</v>
-      </c>
-      <c r="G439" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>3497</v>
       </c>
-      <c r="H439" s="2" t="s">
+      <c r="I439" s="2" t="s">
         <v>3498</v>
       </c>
-      <c r="I439" s="2" t="s">
+      <c r="J439" s="2" t="s">
         <v>3499</v>
       </c>
-      <c r="J439" s="2" t="s">
+      <c r="K439" s="2" t="s">
         <v>3500</v>
       </c>
-      <c r="K439" s="2" t="s">
+      <c r="L439" s="2" t="s">
         <v>3501</v>
       </c>
-      <c r="L439" s="2" t="s">
+      <c r="M439" s="2" t="s">
         <v>3502</v>
       </c>
-      <c r="M439" s="2" t="s">
+      <c r="N439" s="2" t="s">
         <v>3503</v>
       </c>
-      <c r="N439" s="2" t="s">
+      <c r="O439" s="2" t="s">
         <v>3504</v>
       </c>
-      <c r="O439" s="2" t="s">
+      <c r="P439" s="2" t="s">
         <v>3505</v>
       </c>
-      <c r="P439" s="2" t="s">
+      <c r="Q439" s="2" t="s">
         <v>3506</v>
-      </c>
-      <c r="Q439" s="2" t="s">
-        <v>3507</v>
       </c>
     </row>
     <row r="440" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>780</v>
       </c>
       <c r="G440" s="2" t="s">
+        <v>3508</v>
+      </c>
+      <c r="H440" s="2" t="s">
         <v>3509</v>
       </c>
-      <c r="H440" s="2" t="s">
+      <c r="I440" s="2" t="s">
         <v>3510</v>
       </c>
-      <c r="I440" s="2" t="s">
+      <c r="J440" s="2" t="s">
         <v>3511</v>
       </c>
-      <c r="J440" s="2" t="s">
+      <c r="K440" s="2" t="s">
         <v>3512</v>
       </c>
-      <c r="K440" s="2" t="s">
+      <c r="L440" s="2" t="s">
         <v>3513</v>
       </c>
-      <c r="L440" s="2" t="s">
+      <c r="M440" s="2" t="s">
         <v>3514</v>
       </c>
-      <c r="M440" s="2" t="s">
+      <c r="N440" s="2" t="s">
         <v>3515</v>
       </c>
-      <c r="N440" s="2" t="s">
+      <c r="O440" s="2" t="s">
         <v>3516</v>
       </c>
-      <c r="O440" s="2" t="s">
+      <c r="P440" s="2" t="s">
         <v>3517</v>
       </c>
-      <c r="P440" s="2" t="s">
+      <c r="Q440" s="2" t="s">
         <v>3518</v>
-      </c>
-      <c r="Q440" s="2" t="s">
-        <v>3519</v>
       </c>
     </row>
     <row r="441" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>3520</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="E441" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G441" s="2" t="s">
         <v>3521</v>
       </c>
-      <c r="E441" s="2" t="s">
-        <v>3482</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>3483</v>
-      </c>
-      <c r="G441" s="2" t="s">
+      <c r="H441" s="2" t="s">
         <v>3522</v>
       </c>
-      <c r="H441" s="2" t="s">
+      <c r="I441" s="2" t="s">
         <v>3523</v>
       </c>
-      <c r="I441" s="2" t="s">
+      <c r="J441" s="2" t="s">
         <v>3524</v>
       </c>
-      <c r="J441" s="2" t="s">
+      <c r="K441" s="2" t="s">
         <v>3525</v>
       </c>
-      <c r="K441" s="2" t="s">
+      <c r="L441" s="2" t="s">
         <v>3526</v>
       </c>
-      <c r="L441" s="2" t="s">
+      <c r="M441" s="2" t="s">
         <v>3527</v>
       </c>
-      <c r="M441" s="2" t="s">
+      <c r="N441" s="2" t="s">
         <v>3528</v>
       </c>
-      <c r="N441" s="2" t="s">
+      <c r="O441" s="2" t="s">
         <v>3529</v>
       </c>
-      <c r="O441" s="2" t="s">
+      <c r="Q441" s="2" t="s">
         <v>3530</v>
-      </c>
-      <c r="Q441" s="2" t="s">
-        <v>3531</v>
       </c>
     </row>
     <row r="442" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>3532</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="E442" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G442" s="2" t="s">
         <v>3533</v>
       </c>
-      <c r="E442" s="2" t="s">
-        <v>3482</v>
-      </c>
-      <c r="F442" s="2" t="s">
-        <v>3483</v>
-      </c>
-      <c r="G442" s="2" t="s">
+      <c r="H442" s="2" t="s">
         <v>3534</v>
       </c>
-      <c r="H442" s="2" t="s">
+      <c r="I442" s="2" t="s">
         <v>3535</v>
       </c>
-      <c r="I442" s="2" t="s">
+      <c r="J442" s="2" t="s">
         <v>3536</v>
       </c>
-      <c r="J442" s="2" t="s">
+      <c r="K442" s="2" t="s">
         <v>3537</v>
       </c>
-      <c r="K442" s="2" t="s">
+      <c r="L442" s="2" t="s">
         <v>3538</v>
       </c>
-      <c r="L442" s="2" t="s">
+      <c r="M442" s="2" t="s">
         <v>3539</v>
       </c>
-      <c r="M442" s="2" t="s">
+      <c r="N442" s="2" t="s">
         <v>3540</v>
       </c>
-      <c r="N442" s="2" t="s">
+      <c r="O442" s="2" t="s">
         <v>3541</v>
       </c>
-      <c r="O442" s="2" t="s">
+      <c r="P442" s="2" t="s">
         <v>3542</v>
       </c>
-      <c r="P442" s="2" t="s">
+      <c r="Q442" s="2" t="s">
         <v>3543</v>
-      </c>
-      <c r="Q442" s="2" t="s">
-        <v>3544</v>
       </c>
     </row>
     <row r="443" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>3545</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="E443" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G443" s="2" t="s">
         <v>3546</v>
       </c>
-      <c r="E443" s="2" t="s">
-        <v>3482</v>
-      </c>
-      <c r="F443" s="2" t="s">
-        <v>3483</v>
-      </c>
-      <c r="G443" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>3547</v>
       </c>
-      <c r="H443" s="2" t="s">
+      <c r="I443" s="2" t="s">
         <v>3548</v>
       </c>
-      <c r="I443" s="2" t="s">
+      <c r="J443" s="2" t="s">
         <v>3549</v>
       </c>
-      <c r="J443" s="2" t="s">
+      <c r="K443" s="2" t="s">
         <v>3550</v>
       </c>
-      <c r="K443" s="2" t="s">
+      <c r="L443" s="2" t="s">
         <v>3551</v>
       </c>
-      <c r="L443" s="2" t="s">
+      <c r="M443" s="2" t="s">
         <v>3552</v>
       </c>
-      <c r="M443" s="2" t="s">
+      <c r="N443" s="2" t="s">
         <v>3553</v>
       </c>
-      <c r="N443" s="2" t="s">
+      <c r="O443" s="2" t="s">
         <v>3554</v>
       </c>
-      <c r="O443" s="2" t="s">
+      <c r="P443" s="2" t="s">
         <v>3555</v>
       </c>
-      <c r="P443" s="2" t="s">
-        <v>3556</v>
-      </c>
       <c r="Q443" s="2" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="444" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>3557</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="E444" s="2" t="s">
         <v>3558</v>
       </c>
-      <c r="E444" s="2" t="s">
+      <c r="G444" s="2" t="s">
         <v>3559</v>
       </c>
-      <c r="G444" s="2" t="s">
+      <c r="H444" s="2" t="s">
         <v>3560</v>
       </c>
-      <c r="H444" s="2" t="s">
+      <c r="I444" s="2" t="s">
         <v>3561</v>
       </c>
-      <c r="I444" s="2" t="s">
+      <c r="J444" s="2" t="s">
         <v>3562</v>
       </c>
-      <c r="J444" s="2" t="s">
+      <c r="K444" s="2" t="s">
         <v>3563</v>
       </c>
-      <c r="K444" s="2" t="s">
+      <c r="L444" s="2" t="s">
         <v>3564</v>
       </c>
-      <c r="L444" s="2" t="s">
+      <c r="M444" s="2" t="s">
         <v>3565</v>
       </c>
-      <c r="M444" s="2" t="s">
+      <c r="N444" s="2" t="s">
         <v>3566</v>
       </c>
-      <c r="N444" s="2" t="s">
+      <c r="O444" s="2" t="s">
         <v>3567</v>
       </c>
-      <c r="O444" s="2" t="s">
+      <c r="P444" s="2" t="s">
         <v>3568</v>
       </c>
-      <c r="P444" s="2" t="s">
-        <v>3569</v>
-      </c>
       <c r="Q444" s="2" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="445" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>3569</v>
+      </c>
+      <c r="G445" s="2" t="s">
         <v>3570</v>
       </c>
-      <c r="B445" s="2" t="s">
-        <v>3570</v>
-      </c>
-      <c r="G445" s="2" t="s">
+      <c r="H445" s="2" t="s">
         <v>3571</v>
       </c>
-      <c r="H445" s="2" t="s">
+      <c r="I445" s="2" t="s">
         <v>3572</v>
       </c>
-      <c r="I445" s="2" t="s">
+      <c r="J445" s="2" t="s">
+        <v>3572</v>
+      </c>
+      <c r="K445" s="2" t="s">
         <v>3573</v>
       </c>
-      <c r="J445" s="2" t="s">
-        <v>3573</v>
-      </c>
-      <c r="K445" s="2" t="s">
+      <c r="L445" s="2" t="s">
         <v>3574</v>
       </c>
-      <c r="L445" s="2" t="s">
+      <c r="M445" s="2" t="s">
         <v>3575</v>
       </c>
-      <c r="M445" s="2" t="s">
+      <c r="N445" s="2" t="s">
         <v>3576</v>
       </c>
-      <c r="N445" s="2" t="s">
+      <c r="O445" s="2" t="s">
         <v>3577</v>
       </c>
-      <c r="O445" s="2" t="s">
+      <c r="P445" s="2" t="s">
         <v>3578</v>
       </c>
-      <c r="P445" s="2" t="s">
+      <c r="Q445" s="2" t="s">
         <v>3579</v>
-      </c>
-      <c r="Q445" s="2" t="s">
-        <v>3580</v>
       </c>
     </row>
     <row r="446" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>3580</v>
+      </c>
+      <c r="G446" s="2" t="s">
         <v>3581</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>3581</v>
-      </c>
-      <c r="G446" s="2" t="s">
+      <c r="H446" s="2" t="s">
         <v>3582</v>
       </c>
-      <c r="H446" s="2" t="s">
+      <c r="I446" s="2" t="s">
         <v>3583</v>
       </c>
-      <c r="I446" s="2" t="s">
+      <c r="J446" s="2" t="s">
         <v>3584</v>
       </c>
-      <c r="J446" s="2" t="s">
+      <c r="K446" s="2" t="s">
         <v>3585</v>
       </c>
-      <c r="K446" s="2" t="s">
+      <c r="L446" s="2" t="s">
         <v>3586</v>
       </c>
-      <c r="L446" s="2" t="s">
+      <c r="M446" s="2" t="s">
         <v>3587</v>
       </c>
-      <c r="M446" s="2" t="s">
+      <c r="N446" s="2" t="s">
         <v>3588</v>
       </c>
-      <c r="N446" s="2" t="s">
+      <c r="O446" s="2" t="s">
         <v>3589</v>
       </c>
-      <c r="O446" s="2" t="s">
+      <c r="P446" s="2" t="s">
         <v>3590</v>
       </c>
-      <c r="P446" s="2" t="s">
+      <c r="Q446" s="2" t="s">
         <v>3591</v>
-      </c>
-      <c r="Q446" s="2" t="s">
-        <v>3592</v>
       </c>
     </row>
     <row r="447" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>3592</v>
+      </c>
+      <c r="G447" s="2" t="s">
         <v>3593</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>3593</v>
-      </c>
-      <c r="G447" s="2" t="s">
+      <c r="H447" s="2" t="s">
         <v>3594</v>
       </c>
-      <c r="H447" s="2" t="s">
+      <c r="I447" s="2" t="s">
         <v>3595</v>
       </c>
-      <c r="I447" s="2" t="s">
+      <c r="J447" s="2" t="s">
         <v>3596</v>
       </c>
-      <c r="J447" s="2" t="s">
+      <c r="K447" s="2" t="s">
         <v>3597</v>
       </c>
-      <c r="K447" s="2" t="s">
+      <c r="L447" s="2" t="s">
         <v>3598</v>
       </c>
-      <c r="L447" s="2" t="s">
+      <c r="M447" s="2" t="s">
         <v>3599</v>
       </c>
-      <c r="M447" s="2" t="s">
+      <c r="N447" s="2" t="s">
         <v>3600</v>
       </c>
-      <c r="N447" s="2" t="s">
+      <c r="O447" s="2" t="s">
         <v>3601</v>
       </c>
-      <c r="O447" s="2" t="s">
+      <c r="P447" s="2" t="s">
         <v>3602</v>
       </c>
-      <c r="P447" s="2" t="s">
+      <c r="Q447" s="2" t="s">
         <v>3603</v>
-      </c>
-      <c r="Q447" s="2" t="s">
-        <v>3604</v>
       </c>
     </row>
     <row r="448" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G448" s="2" t="s">
         <v>3605</v>
       </c>
-      <c r="B448" s="2" t="s">
-        <v>3605</v>
-      </c>
-      <c r="G448" s="2" t="s">
+      <c r="H448" s="2" t="s">
         <v>3606</v>
       </c>
-      <c r="H448" s="2" t="s">
+      <c r="I448" s="2" t="s">
         <v>3607</v>
       </c>
-      <c r="I448" s="2" t="s">
+      <c r="J448" s="2" t="s">
         <v>3608</v>
       </c>
-      <c r="J448" s="2" t="s">
+      <c r="K448" s="2" t="s">
+        <v>2827</v>
+      </c>
+      <c r="L448" s="2" t="s">
         <v>3609</v>
       </c>
-      <c r="K448" s="2" t="s">
-        <v>2828</v>
-      </c>
-      <c r="L448" s="2" t="s">
+      <c r="M448" s="2" t="s">
         <v>3610</v>
       </c>
-      <c r="M448" s="2" t="s">
+      <c r="N448" s="2" t="s">
         <v>3611</v>
       </c>
-      <c r="N448" s="2" t="s">
+      <c r="O448" s="2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="P448" s="2" t="s">
         <v>3612</v>
       </c>
-      <c r="O448" s="2" t="s">
-        <v>2832</v>
-      </c>
-      <c r="P448" s="2" t="s">
+      <c r="Q448" s="2" t="s">
         <v>3613</v>
-      </c>
-      <c r="Q448" s="2" t="s">
-        <v>3614</v>
       </c>
     </row>
     <row r="449" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>3614</v>
+      </c>
+      <c r="G449" s="2" t="s">
         <v>3615</v>
       </c>
-      <c r="B449" s="2" t="s">
-        <v>3615</v>
-      </c>
-      <c r="G449" s="2" t="s">
+      <c r="H449" s="2" t="s">
         <v>3616</v>
       </c>
-      <c r="H449" s="2" t="s">
+      <c r="I449" s="2" t="s">
         <v>3617</v>
       </c>
-      <c r="I449" s="2" t="s">
+      <c r="J449" s="2" t="s">
+        <v>3617</v>
+      </c>
+      <c r="K449" s="2" t="s">
         <v>3618</v>
       </c>
-      <c r="J449" s="2" t="s">
-        <v>3618</v>
-      </c>
-      <c r="K449" s="2" t="s">
+      <c r="L449" s="2" t="s">
         <v>3619</v>
       </c>
-      <c r="L449" s="2" t="s">
+      <c r="M449" s="2" t="s">
         <v>3620</v>
       </c>
-      <c r="M449" s="2" t="s">
+      <c r="N449" s="2" t="s">
         <v>3621</v>
       </c>
-      <c r="N449" s="2" t="s">
+      <c r="O449" s="2" t="s">
         <v>3622</v>
       </c>
-      <c r="O449" s="2" t="s">
+      <c r="P449" s="2" t="s">
         <v>3623</v>
       </c>
-      <c r="P449" s="2" t="s">
+      <c r="Q449" s="2" t="s">
         <v>3624</v>
-      </c>
-      <c r="Q449" s="2" t="s">
-        <v>3625</v>
       </c>
     </row>
     <row r="450" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>3625</v>
+      </c>
+      <c r="G450" s="2" t="s">
         <v>3626</v>
       </c>
-      <c r="B450" s="2" t="s">
-        <v>3626</v>
-      </c>
-      <c r="G450" s="2" t="s">
+      <c r="H450" s="2" t="s">
         <v>3627</v>
       </c>
-      <c r="H450" s="2" t="s">
+      <c r="I450" s="2" t="s">
         <v>3628</v>
       </c>
-      <c r="I450" s="2" t="s">
+      <c r="J450" s="2" t="s">
         <v>3629</v>
       </c>
-      <c r="J450" s="2" t="s">
+      <c r="K450" s="2" t="s">
         <v>3630</v>
       </c>
-      <c r="K450" s="2" t="s">
+      <c r="L450" s="2" t="s">
         <v>3631</v>
       </c>
-      <c r="L450" s="2" t="s">
+      <c r="M450" s="2" t="s">
         <v>3632</v>
       </c>
-      <c r="M450" s="2" t="s">
+      <c r="N450" s="2" t="s">
         <v>3633</v>
       </c>
-      <c r="N450" s="2" t="s">
+      <c r="O450" s="2" t="s">
         <v>3634</v>
       </c>
-      <c r="O450" s="2" t="s">
+      <c r="P450" s="2" t="s">
         <v>3635</v>
       </c>
-      <c r="P450" s="2" t="s">
+      <c r="Q450" s="2" t="s">
         <v>3636</v>
-      </c>
-      <c r="Q450" s="2" t="s">
-        <v>3637</v>
       </c>
     </row>
     <row r="451" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>3637</v>
+      </c>
+      <c r="G451" s="2" t="s">
         <v>3638</v>
       </c>
-      <c r="B451" s="2" t="s">
-        <v>3638</v>
-      </c>
-      <c r="G451" s="2" t="s">
+      <c r="H451" s="2" t="s">
         <v>3639</v>
       </c>
-      <c r="H451" s="2" t="s">
+      <c r="I451" s="2" t="s">
         <v>3640</v>
       </c>
-      <c r="I451" s="2" t="s">
+      <c r="J451" s="2" t="s">
         <v>3641</v>
       </c>
-      <c r="J451" s="2" t="s">
+      <c r="K451" s="2" t="s">
         <v>3642</v>
       </c>
-      <c r="K451" s="2" t="s">
+      <c r="L451" s="2" t="s">
         <v>3643</v>
       </c>
-      <c r="L451" s="2" t="s">
+      <c r="M451" s="2" t="s">
         <v>3644</v>
       </c>
-      <c r="M451" s="2" t="s">
+      <c r="N451" s="2" t="s">
         <v>3645</v>
       </c>
-      <c r="N451" s="2" t="s">
+      <c r="O451" s="2" t="s">
+        <v>3634</v>
+      </c>
+      <c r="P451" s="2" t="s">
         <v>3646</v>
       </c>
-      <c r="O451" s="2" t="s">
-        <v>3635</v>
-      </c>
-      <c r="P451" s="2" t="s">
+      <c r="Q451" s="2" t="s">
         <v>3647</v>
-      </c>
-      <c r="Q451" s="2" t="s">
-        <v>3648</v>
       </c>
     </row>
     <row r="452" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>3648</v>
+      </c>
+      <c r="G452" s="2" t="s">
         <v>3649</v>
       </c>
-      <c r="B452" s="2" t="s">
-        <v>3649</v>
-      </c>
-      <c r="G452" s="2" t="s">
+      <c r="H452" s="2" t="s">
         <v>3650</v>
       </c>
-      <c r="H452" s="2" t="s">
+      <c r="I452" s="2" t="s">
         <v>3651</v>
       </c>
-      <c r="I452" s="2" t="s">
+      <c r="J452" s="2" t="s">
         <v>3652</v>
       </c>
-      <c r="J452" s="2" t="s">
+      <c r="K452" s="2" t="s">
+        <v>3648</v>
+      </c>
+      <c r="L452" s="2" t="s">
         <v>3653</v>
       </c>
-      <c r="K452" s="2" t="s">
-        <v>3649</v>
-      </c>
-      <c r="L452" s="2" t="s">
+      <c r="M452" s="2" t="s">
         <v>3654</v>
       </c>
-      <c r="M452" s="2" t="s">
+      <c r="N452" s="2" t="s">
         <v>3655</v>
       </c>
-      <c r="N452" s="2" t="s">
+      <c r="O452" s="2" t="s">
         <v>3656</v>
       </c>
-      <c r="O452" s="2" t="s">
+      <c r="P452" s="2" t="s">
         <v>3657</v>
       </c>
-      <c r="P452" s="2" t="s">
+      <c r="Q452" s="2" t="s">
         <v>3658</v>
-      </c>
-      <c r="Q452" s="2" t="s">
-        <v>3659</v>
       </c>
     </row>
     <row r="453" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>3659</v>
+      </c>
+      <c r="G453" s="2" t="s">
         <v>3660</v>
       </c>
-      <c r="B453" s="2" t="s">
-        <v>3660</v>
-      </c>
-      <c r="G453" s="2" t="s">
+      <c r="H453" s="2" t="s">
         <v>3661</v>
       </c>
-      <c r="H453" s="2" t="s">
+      <c r="I453" s="2" t="s">
         <v>3662</v>
       </c>
-      <c r="I453" s="2" t="s">
+      <c r="J453" s="2" t="s">
         <v>3663</v>
       </c>
-      <c r="J453" s="2" t="s">
+      <c r="K453" s="2" t="s">
         <v>3664</v>
       </c>
-      <c r="K453" s="2" t="s">
+      <c r="L453" s="2" t="s">
         <v>3665</v>
       </c>
-      <c r="L453" s="2" t="s">
+      <c r="M453" s="2" t="s">
         <v>3666</v>
       </c>
-      <c r="M453" s="2" t="s">
+      <c r="N453" s="2" t="s">
         <v>3667</v>
       </c>
-      <c r="N453" s="2" t="s">
+      <c r="O453" s="2" t="s">
         <v>3668</v>
       </c>
-      <c r="O453" s="2" t="s">
+      <c r="P453" s="2" t="s">
         <v>3669</v>
       </c>
-      <c r="P453" s="2" t="s">
+      <c r="Q453" s="2" t="s">
         <v>3670</v>
-      </c>
-      <c r="Q453" s="2" t="s">
-        <v>3671</v>
       </c>
     </row>
     <row r="454" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>3671</v>
+      </c>
+      <c r="G454" s="2" t="s">
         <v>3672</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>3672</v>
-      </c>
-      <c r="G454" s="2" t="s">
+      <c r="H454" s="2" t="s">
         <v>3673</v>
       </c>
-      <c r="H454" s="2" t="s">
+      <c r="I454" s="2" t="s">
         <v>3674</v>
       </c>
-      <c r="I454" s="2" t="s">
+      <c r="J454" s="2" t="s">
         <v>3675</v>
       </c>
-      <c r="J454" s="2" t="s">
+      <c r="K454" s="2" t="s">
         <v>3676</v>
       </c>
-      <c r="K454" s="2" t="s">
+      <c r="L454" s="2" t="s">
         <v>3677</v>
       </c>
-      <c r="L454" s="2" t="s">
+      <c r="M454" s="2" t="s">
         <v>3678</v>
       </c>
-      <c r="M454" s="2" t="s">
+      <c r="N454" s="2" t="s">
         <v>3679</v>
       </c>
-      <c r="N454" s="2" t="s">
+      <c r="O454" s="2" t="s">
         <v>3680</v>
       </c>
-      <c r="O454" s="2" t="s">
+      <c r="P454" s="2" t="s">
         <v>3681</v>
       </c>
-      <c r="P454" s="2" t="s">
+      <c r="Q454" s="2" t="s">
         <v>3682</v>
-      </c>
-      <c r="Q454" s="2" t="s">
-        <v>3683</v>
       </c>
     </row>
     <row r="455" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>3684</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="E455" s="2" t="s">
         <v>3685</v>
       </c>
-      <c r="E455" s="2" t="s">
+      <c r="F455" s="2" t="s">
         <v>3686</v>
       </c>
-      <c r="F455" s="2" t="s">
+      <c r="G455" s="2" t="s">
         <v>3687</v>
       </c>
-      <c r="G455" s="2" t="s">
+      <c r="H455" s="2" t="s">
         <v>3688</v>
       </c>
-      <c r="H455" s="2" t="s">
+      <c r="I455" s="2" t="s">
         <v>3689</v>
       </c>
-      <c r="I455" s="2" t="s">
+      <c r="J455" s="2" t="s">
         <v>3690</v>
       </c>
-      <c r="J455" s="2" t="s">
+      <c r="K455" s="2" t="s">
         <v>3691</v>
       </c>
-      <c r="K455" s="2" t="s">
+      <c r="L455" s="2" t="s">
         <v>3692</v>
       </c>
-      <c r="L455" s="2" t="s">
+      <c r="M455" s="2" t="s">
         <v>3693</v>
       </c>
-      <c r="M455" s="2" t="s">
+      <c r="N455" s="2" t="s">
         <v>3694</v>
       </c>
-      <c r="N455" s="2" t="s">
+      <c r="O455" s="2" t="s">
         <v>3695</v>
       </c>
-      <c r="O455" s="2" t="s">
+      <c r="P455" s="2" t="s">
         <v>3696</v>
       </c>
-      <c r="P455" s="2" t="s">
+      <c r="Q455" s="2" t="s">
         <v>3697</v>
-      </c>
-      <c r="Q455" s="2" t="s">
-        <v>3698</v>
       </c>
     </row>
     <row r="456" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>3699</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="E456" s="2" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>3686</v>
+      </c>
+      <c r="G456" s="2" t="s">
         <v>3700</v>
       </c>
-      <c r="E456" s="2" t="s">
-        <v>3686</v>
-      </c>
-      <c r="F456" s="2" t="s">
-        <v>3687</v>
-      </c>
-      <c r="G456" s="2" t="s">
+      <c r="H456" s="2" t="s">
         <v>3701</v>
       </c>
-      <c r="H456" s="2" t="s">
+      <c r="I456" s="2" t="s">
         <v>3702</v>
       </c>
-      <c r="I456" s="2" t="s">
+      <c r="J456" s="2" t="s">
         <v>3703</v>
       </c>
-      <c r="J456" s="2" t="s">
+      <c r="K456" s="2" t="s">
         <v>3704</v>
       </c>
-      <c r="K456" s="2" t="s">
+      <c r="L456" s="2" t="s">
         <v>3705</v>
       </c>
-      <c r="L456" s="2" t="s">
+      <c r="M456" s="2" t="s">
         <v>3706</v>
       </c>
-      <c r="M456" s="2" t="s">
+      <c r="N456" s="2" t="s">
         <v>3707</v>
       </c>
-      <c r="N456" s="2" t="s">
+      <c r="O456" s="2" t="s">
         <v>3708</v>
       </c>
-      <c r="O456" s="2" t="s">
+      <c r="P456" s="2" t="s">
         <v>3709</v>
       </c>
-      <c r="P456" s="2" t="s">
+      <c r="Q456" s="2" t="s">
         <v>3710</v>
-      </c>
-      <c r="Q456" s="2" t="s">
-        <v>3711</v>
       </c>
     </row>
     <row r="457" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B457" s="2" t="s">
         <v>3712</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="E457" s="2" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G457" s="2" t="s">
         <v>3713</v>
       </c>
-      <c r="E457" s="2" t="s">
-        <v>3430</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>3431</v>
-      </c>
-      <c r="G457" s="2" t="s">
+      <c r="H457" s="2" t="s">
         <v>3714</v>
       </c>
-      <c r="H457" s="2" t="s">
+      <c r="I457" s="2" t="s">
         <v>3715</v>
       </c>
-      <c r="I457" s="2" t="s">
+      <c r="J457" s="2" t="s">
         <v>3716</v>
       </c>
-      <c r="J457" s="2" t="s">
+      <c r="K457" s="2" t="s">
         <v>3717</v>
       </c>
-      <c r="K457" s="2" t="s">
+      <c r="L457" s="2" t="s">
         <v>3718</v>
       </c>
-      <c r="L457" s="2" t="s">
+      <c r="M457" s="2" t="s">
         <v>3719</v>
       </c>
-      <c r="M457" s="2" t="s">
+      <c r="N457" s="2" t="s">
         <v>3720</v>
       </c>
-      <c r="N457" s="2" t="s">
+      <c r="O457" s="2" t="s">
         <v>3721</v>
       </c>
-      <c r="O457" s="2" t="s">
+      <c r="P457" s="2" t="s">
         <v>3722</v>
       </c>
-      <c r="P457" s="2" t="s">
+      <c r="Q457" s="2" t="s">
         <v>3723</v>
-      </c>
-      <c r="Q457" s="2" t="s">
-        <v>3724</v>
       </c>
     </row>
     <row r="458" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B458" s="2" t="s">
         <v>3725</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="E458" s="2" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>3686</v>
+      </c>
+      <c r="G458" s="2" t="s">
         <v>3726</v>
       </c>
-      <c r="E458" s="2" t="s">
-        <v>3686</v>
-      </c>
-      <c r="F458" s="2" t="s">
-        <v>3687</v>
-      </c>
-      <c r="G458" s="2" t="s">
+      <c r="H458" s="2" t="s">
         <v>3727</v>
       </c>
-      <c r="H458" s="2" t="s">
+      <c r="I458" s="2" t="s">
         <v>3728</v>
       </c>
-      <c r="I458" s="2" t="s">
+      <c r="J458" s="2" t="s">
         <v>3729</v>
       </c>
-      <c r="J458" s="2" t="s">
+      <c r="K458" s="2" t="s">
         <v>3730</v>
       </c>
-      <c r="K458" s="2" t="s">
+      <c r="L458" s="2" t="s">
         <v>3731</v>
       </c>
-      <c r="L458" s="2" t="s">
+      <c r="M458" s="2" t="s">
         <v>3732</v>
       </c>
-      <c r="M458" s="2" t="s">
+      <c r="N458" s="2" t="s">
         <v>3733</v>
       </c>
-      <c r="N458" s="2" t="s">
+      <c r="O458" s="2" t="s">
         <v>3734</v>
       </c>
-      <c r="O458" s="2" t="s">
+      <c r="P458" s="2" t="s">
         <v>3735</v>
       </c>
-      <c r="P458" s="2" t="s">
+      <c r="Q458" s="2" t="s">
         <v>3736</v>
-      </c>
-      <c r="Q458" s="2" t="s">
-        <v>3737</v>
       </c>
     </row>
     <row r="459" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>3738</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="E459" s="2" t="s">
+        <v>3481</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G459" s="2" t="s">
         <v>3739</v>
       </c>
-      <c r="E459" s="2" t="s">
-        <v>3482</v>
-      </c>
-      <c r="F459" s="2" t="s">
-        <v>3483</v>
-      </c>
-      <c r="G459" s="2" t="s">
+      <c r="H459" s="2" t="s">
+        <v>3484</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>3738</v>
+      </c>
+      <c r="J459" s="2" t="s">
         <v>3740</v>
       </c>
-      <c r="H459" s="2" t="s">
-        <v>3485</v>
-      </c>
-      <c r="I459" s="2" t="s">
-        <v>3739</v>
-      </c>
-      <c r="J459" s="2" t="s">
+      <c r="K459" s="2" t="s">
         <v>3741</v>
       </c>
-      <c r="K459" s="2" t="s">
+      <c r="L459" s="2" t="s">
         <v>3742</v>
       </c>
-      <c r="L459" s="2" t="s">
+      <c r="M459" s="2" t="s">
         <v>3743</v>
       </c>
-      <c r="M459" s="2" t="s">
+      <c r="N459" s="2" t="s">
         <v>3744</v>
       </c>
-      <c r="N459" s="2" t="s">
+      <c r="O459" s="2" t="s">
         <v>3745</v>
       </c>
-      <c r="O459" s="2" t="s">
+      <c r="P459" s="2" t="s">
         <v>3746</v>
       </c>
-      <c r="P459" s="2" t="s">
+      <c r="Q459" s="2" t="s">
         <v>3747</v>
-      </c>
-      <c r="Q459" s="2" t="s">
-        <v>3748</v>
       </c>
     </row>
     <row r="460" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>726</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="J460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="K460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="L460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="M460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="N460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="O460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="P460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="Q460" s="2" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="461" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>726</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="K461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="L461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="M461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="O461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="P461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="Q461" s="2" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="462" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>604</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="J462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="K462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="L462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="M462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="N462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="O462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="P462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="Q462" s="2" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="463" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>780</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="J463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="K463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="L463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="M463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="N463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="O463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="P463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="Q463" s="2" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="464" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="J464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="K464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="L464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="M464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="N464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="O464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="P464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="Q464" s="2" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="465" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="J465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="L465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="M465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="N465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="O465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="P465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q465" s="2" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="466" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="J466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="L466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="N466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="O466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="P466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="Q466" s="2" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="467" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="J467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="L467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="M467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="N467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="O467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="P467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="Q467" s="2" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="468" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="H468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="I468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="J468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="K468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="L468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="M468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="N468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="O468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="P468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="Q468" s="2" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="469" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="J469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="K469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="L469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="M469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="N469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="O469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="P469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="Q469" s="2" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="470" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="H470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="I470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="J470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="L470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="M470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="N470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="O470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="P470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="Q470" s="2" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="471" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>3759</v>
+      </c>
+      <c r="G471" s="2" t="s">
         <v>3760</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>3760</v>
-      </c>
-      <c r="G471" s="2" t="s">
+      <c r="H471" s="2" t="s">
         <v>3761</v>
       </c>
-      <c r="H471" s="2" t="s">
+      <c r="I471" s="2" t="s">
         <v>3762</v>
       </c>
-      <c r="I471" s="2" t="s">
+      <c r="J471" s="2" t="s">
         <v>3763</v>
       </c>
-      <c r="J471" s="2" t="s">
+      <c r="K471" s="2" t="s">
         <v>3764</v>
       </c>
-      <c r="K471" s="2" t="s">
+      <c r="L471" s="2" t="s">
         <v>3765</v>
       </c>
-      <c r="L471" s="2" t="s">
+      <c r="M471" s="2" t="s">
         <v>3766</v>
       </c>
-      <c r="M471" s="2" t="s">
+      <c r="N471" s="2" t="s">
         <v>3767</v>
       </c>
-      <c r="N471" s="2" t="s">
+      <c r="O471" s="2" t="s">
         <v>3768</v>
       </c>
-      <c r="O471" s="2" t="s">
+      <c r="P471" s="2" t="s">
         <v>3769</v>
       </c>
-      <c r="P471" s="2" t="s">
+      <c r="Q471" s="2" t="s">
         <v>3770</v>
-      </c>
-      <c r="Q471" s="2" t="s">
-        <v>3771</v>
       </c>
     </row>
     <row r="472" spans="1:17" ht="68" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="G472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="H472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="I472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="J472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="K472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="L472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="M472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="N472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="O472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="P472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="Q472" s="5" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="473" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="G473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="H473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="I473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="J473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="K473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="L473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="M473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="N473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="O473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="P473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="Q473" s="6" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="474" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="G474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="H474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="I474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="J474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="K474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="L474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="M474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="N474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="O474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="P474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="Q474" s="6" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="475" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="G475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="H475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="I475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="J475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="K475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="L475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="M475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="N475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="O475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="P475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="Q475" s="6" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="476" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="G476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="H476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="I476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="J476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="K476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="L476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="M476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="N476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="O476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="P476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="Q476" s="5" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="477" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="G477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="H477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="I477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="J477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="K477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="L477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="M477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="N477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="O477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="P477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="Q477" s="5" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="478" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="G478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="H478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="I478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="J478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="K478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="L478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="M478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="O478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="P478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="Q478" s="5" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="479" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="H479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="I479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="J479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="K479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="L479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="M479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="N479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="O479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="P479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="Q479" s="5" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="480" spans="1:17" ht="119" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="G480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="H480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="I480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="J480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="K480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="L480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="N480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="O480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="P480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="Q480" s="5" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="481" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="I481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="J481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="K481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="L481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="N481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="O481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="P481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="Q481" s="7" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="482" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="4" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="H482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="I482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="J482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="K482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="L482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="O482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="P482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="Q482" s="7" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="483" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="G483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="H483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="I483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="J483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="K483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="L483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="M483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="N483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="O483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="P483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="Q483" s="7" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
   </sheetData>

--- a/utils/localization/resources/backup/out_meta_meta.xlsx
+++ b/utils/localization/resources/backup/out_meta_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577C8E4D-3837-D047-9F68-47F496B749E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1957FFE-8468-0D44-BEFC-CDC3272B73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6591" uniqueCount="3812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6617" uniqueCount="3814">
   <si>
     <t>Key</t>
   </si>
@@ -11570,6 +11570,12 @@
   </si>
   <si>
     <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -11972,10 +11978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q483"/>
+  <dimension ref="A2:Q485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" topLeftCell="I469" workbookViewId="0">
+      <selection activeCell="G484" sqref="G484:Q485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32722,6 +32728,88 @@
         <v>2870</v>
       </c>
     </row>
+    <row r="484" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="G484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="H484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="I484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="J484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="K484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="L484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="M484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="N484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="O484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="P484" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="Q484" s="4" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="G485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="H485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="I485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="J485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="K485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="L485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="M485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="N485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="O485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="P485" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="Q485" s="4" t="s">
+        <v>3813</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/utils/localization/resources/backup/out_meta_meta.xlsx
+++ b/utils/localization/resources/backup/out_meta_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localization/resources/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1957FFE-8468-0D44-BEFC-CDC3272B73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006771A-FE2D-E749-B34A-78F45989B3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6617" uniqueCount="3814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6643" uniqueCount="3816">
   <si>
     <t>Key</t>
   </si>
@@ -11576,6 +11576,12 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>We are processing multiple requests at the moment. Please try again after sometime.</t>
+  </si>
+  <si>
+    <t>No badge earned for &lt;initiative&gt;</t>
   </si>
 </sst>
 </file>
@@ -11978,10 +11984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q485"/>
+  <dimension ref="A2:Q487"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I469" workbookViewId="0">
-      <selection activeCell="G484" sqref="G484:Q485"/>
+    <sheetView tabSelected="1" topLeftCell="J466" workbookViewId="0">
+      <selection activeCell="I486" sqref="I486:Q487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32810,6 +32816,88 @@
         <v>3813</v>
       </c>
     </row>
+    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="G486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="H486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="I486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="J486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="K486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="L486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="M486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="N486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="O486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="P486" t="s">
+        <v>3814</v>
+      </c>
+      <c r="Q486" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="G487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="H487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="I487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="J487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="K487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="L487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="M487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="N487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="O487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="P487" t="s">
+        <v>3815</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>3815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
